--- a/WW2_Ship_Analysis/LexingtonVsYorktownFuelUsage/LexingtonYorktownPrework.xlsx
+++ b/WW2_Ship_Analysis/LexingtonVsYorktownFuelUsage/LexingtonYorktownPrework.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PythonExercises\WW2_Ship_Analysis\LexingtonVsYorktownFuelUsage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9153566-16F6-4BF8-89FD-B0CA0DFA9025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013F8529-C158-4B71-9DFA-1A283D832B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12029E8E-7F84-4CF1-B9E8-BAF5EF97425C}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{12029E8E-7F84-4CF1-B9E8-BAF5EF97425C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_nVolume">Sheet1!$M$2</definedName>
+    <definedName name="_nVolume">Sheet1!$N$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
   <si>
     <t>PROP. SPEED</t>
   </si>
@@ -326,12 +326,6 @@
     <t>2,990.±150</t>
   </si>
   <si>
-    <t>28.9±.2</t>
-  </si>
-  <si>
-    <t>2,750±150</t>
-  </si>
-  <si>
     <t>23,982-32,471</t>
   </si>
   <si>
@@ -456,12 +450,24 @@
   </si>
   <si>
     <t>Mileage</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Round</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,15 +497,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -809,15 +828,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDBA1C1-95D5-40A9-8D91-249FF302BA19}">
-  <dimension ref="A1:AF43"/>
+  <dimension ref="A1:AI45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="T4" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="18" max="18" width="3.21875" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -833,20 +857,20 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -856,41 +880,41 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>2337162</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <v>2654</v>
       </c>
-      <c r="X2">
-        <f>W2*24/42</f>
+      <c r="AA2">
+        <f>Z2*24/42</f>
         <v>1516.5714285714287</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AF3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH3" t="s">
         <v>125</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AI3" t="s">
         <v>126</v>
       </c>
-      <c r="AE3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-1</v>
       </c>
@@ -915,20 +939,20 @@
       <c r="H4">
         <v>-8</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-9</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-10</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>-11</v>
       </c>
-      <c r="AD4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -953,29 +977,29 @@
       <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AF5" t="s">
         <v>16</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AG5" t="s">
         <v>17</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
         <v>15</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AI5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100</v>
       </c>
@@ -1000,93 +1024,155 @@
       <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>10.8</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>9510</v>
       </c>
-      <c r="K6">
-        <v>245.7</v>
-      </c>
-      <c r="M6">
+      <c r="L6" s="3">
+        <f>_nVolume/K6</f>
+        <v>245.75835962145109</v>
+      </c>
+      <c r="N6">
         <f>B6*E6</f>
         <v>2338174</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f>_nVolume/B6</f>
         <v>880.61868877166546</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>9510</v>
       </c>
-      <c r="P6">
-        <f>N6*I6</f>
+      <c r="Q6">
+        <f>O6*J6</f>
         <v>9510.6818387339881</v>
       </c>
       <c r="U6" t="s">
+        <v>137</v>
+      </c>
+      <c r="V6" t="s">
+        <v>138</v>
+      </c>
+      <c r="W6" t="s">
+        <v>139</v>
+      </c>
+      <c r="X6" t="s">
         <v>16</v>
       </c>
-      <c r="V6" t="s">
+      <c r="Y6" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA6" t="s">
         <v>135</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AB6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC6" t="s">
         <v>136</v>
       </c>
-      <c r="X6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC6">
+      <c r="AF6">
         <v>11</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AG6" s="1">
         <v>10950</v>
       </c>
-      <c r="AE6">
+      <c r="AH6">
         <v>41.6</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AI6" s="1">
         <v>1552</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="U7">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>773</v>
+      </c>
+      <c r="F7">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9280</v>
+      </c>
+      <c r="L7" s="3">
+        <f>_nVolume/K7</f>
+        <v>251.84935344827585</v>
+      </c>
+      <c r="N7">
+        <f>B8*E7</f>
+        <v>2338325</v>
+      </c>
+      <c r="O7">
+        <f>_nVolume/B8</f>
+        <v>772.61553719008259</v>
+      </c>
+      <c r="P7">
+        <v>9280</v>
+      </c>
+      <c r="Q7">
+        <f>O7*J7</f>
+        <v>9271.3864462809906</v>
+      </c>
+      <c r="S7">
         <v>11</v>
       </c>
-      <c r="V7" s="1">
+      <c r="U7" s="4">
+        <f>((J7-S7)*K6+(S7-J6)*K7)/(J7-J6)</f>
+        <v>9471.6666666666661</v>
+      </c>
+      <c r="V7" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S7,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>9471.6666666666679</v>
+      </c>
+      <c r="W7" s="4">
+        <f ca="1">ROUND(V7,-1)</f>
         <v>9470</v>
       </c>
-      <c r="W7">
+      <c r="X7">
+        <v>11</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>9470</v>
+      </c>
+      <c r="Z7">
         <v>246.8</v>
       </c>
-      <c r="X7">
-        <f>V7/(U7)</f>
+      <c r="AA7">
+        <f>Y7/(X7)</f>
         <v>860.90909090909088</v>
       </c>
-      <c r="Z7">
-        <f>_nVolume/W7</f>
+      <c r="AC7">
+        <f t="shared" ref="AC7:AC26" si="0">_nVolume/Z7</f>
         <v>9469.8622366288491</v>
       </c>
-      <c r="AC7">
+      <c r="AF7">
         <v>12</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AG7" s="1">
         <v>10730</v>
       </c>
-      <c r="AE7">
+      <c r="AH7">
         <v>37.200000000000003</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AI7" s="1">
         <v>1729</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>110</v>
       </c>
@@ -1100,103 +1186,171 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>773</v>
+        <v>678</v>
       </c>
       <c r="F8">
-        <v>32.200000000000003</v>
+        <v>28.2</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1">
-        <v>9280</v>
-      </c>
-      <c r="K8">
-        <v>252.1</v>
-      </c>
-      <c r="M8">
-        <f>B8*E8</f>
-        <v>2338325</v>
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>13.1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8880</v>
+      </c>
+      <c r="L8" s="3">
+        <f>_nVolume/K8</f>
+        <v>263.19391891891894</v>
       </c>
       <c r="N8">
-        <f>_nVolume/B8</f>
-        <v>772.61553719008259</v>
+        <f>B10*E8</f>
+        <v>2337744</v>
       </c>
       <c r="O8">
-        <v>9280</v>
+        <f>_nVolume/B10</f>
+        <v>677.83120649651971</v>
       </c>
       <c r="P8">
-        <f>N8*I8</f>
-        <v>9271.3864462809906</v>
-      </c>
-      <c r="U8">
+        <v>8880</v>
+      </c>
+      <c r="Q8">
+        <f>O8*J8</f>
+        <v>8879.5888051044076</v>
+      </c>
+      <c r="S8">
         <v>13</v>
       </c>
-      <c r="V8" s="1">
+      <c r="U8" s="4">
+        <f>((J8-S8)*K7+(S8-J7)*K8)/(J8-J7)</f>
+        <v>8916.363636363636</v>
+      </c>
+      <c r="V8" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S8,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>8916.363636363636</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" ref="W8:W26" ca="1" si="1">ROUND(V8,-1)</f>
         <v>8920</v>
       </c>
-      <c r="W8">
+      <c r="X8">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>8920</v>
+      </c>
+      <c r="Z8">
         <v>262.2</v>
       </c>
-      <c r="X8">
-        <f t="shared" ref="X8:X26" si="0">V8/(U8*1.15)</f>
+      <c r="AA8">
+        <f t="shared" ref="AA8:AA26" si="2">Y8/(X8*1.15)</f>
         <v>596.65551839464888</v>
       </c>
-      <c r="Z8">
-        <f>_nVolume/W8</f>
+      <c r="AC8">
+        <f t="shared" si="0"/>
         <v>8913.6613272311224</v>
       </c>
-      <c r="AC8">
+      <c r="AF8">
         <v>13</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AG8" s="1">
         <v>10310</v>
       </c>
-      <c r="AE8">
+      <c r="AH8">
         <v>33.1</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AI8" s="1">
         <v>1948</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="U9">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>595</v>
+      </c>
+      <c r="F9">
+        <v>24.8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9">
+        <v>14.3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8510</v>
+      </c>
+      <c r="L9" s="3">
+        <f>_nVolume/K9</f>
+        <v>274.63713278495885</v>
+      </c>
+      <c r="N9">
+        <f>B12*E9</f>
+        <v>2338350</v>
+      </c>
+      <c r="O9">
+        <f>_nVolume/B12</f>
+        <v>594.69770992366409</v>
+      </c>
+      <c r="P9">
+        <v>8510</v>
+      </c>
+      <c r="Q9">
+        <f>O9*J9</f>
+        <v>8504.177251908397</v>
+      </c>
+      <c r="S9">
         <v>14</v>
       </c>
-      <c r="V9" s="1">
+      <c r="U9" s="4">
+        <f>((J9-S9)*K8+(S9-J8)*K9)/(J9-J8)</f>
+        <v>8602.5</v>
+      </c>
+      <c r="V9" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S9,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>8602.5</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>8600</v>
       </c>
-      <c r="W9">
+      <c r="X9">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>8600</v>
+      </c>
+      <c r="Z9">
         <v>271.89999999999998</v>
       </c>
-      <c r="X9">
+      <c r="AA9">
+        <f t="shared" si="2"/>
+        <v>534.16149068322989</v>
+      </c>
+      <c r="AC9">
         <f t="shared" si="0"/>
-        <v>534.16149068322989</v>
-      </c>
-      <c r="Z9">
-        <f>_nVolume/W9</f>
         <v>8595.667524825305</v>
       </c>
-      <c r="AC9">
+      <c r="AF9">
         <v>14</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AG9" s="1">
         <v>9940</v>
       </c>
-      <c r="AE9">
+      <c r="AH9">
         <v>29.6</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AI9" s="1">
         <v>2177</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>120</v>
       </c>
@@ -1210,103 +1364,171 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>678</v>
+        <v>522</v>
       </c>
       <c r="F10">
-        <v>28.2</v>
+        <v>21.8</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10">
-        <v>13.1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>8880</v>
-      </c>
-      <c r="K10">
-        <v>263.2</v>
-      </c>
-      <c r="M10">
-        <f>B10*E10</f>
-        <v>2337744</v>
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>15.4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8040</v>
+      </c>
+      <c r="L10" s="3">
+        <f>_nVolume/K10</f>
+        <v>290.6917910447761</v>
       </c>
       <c r="N10">
-        <f>_nVolume/B10</f>
-        <v>677.83120649651971</v>
+        <f>B14*E10</f>
+        <v>2338560</v>
       </c>
       <c r="O10">
-        <v>8880</v>
+        <f>_nVolume/B14</f>
+        <v>521.68794642857142</v>
       </c>
       <c r="P10">
-        <f>N10*I10</f>
-        <v>8879.5888051044076</v>
-      </c>
-      <c r="U10">
+        <v>8040</v>
+      </c>
+      <c r="Q10">
+        <f>O10*J10</f>
+        <v>8033.9943750000002</v>
+      </c>
+      <c r="S10">
         <v>15</v>
       </c>
-      <c r="V10" s="1">
+      <c r="U10" s="4">
+        <f>((J10-S10)*K9+(S10-J9)*K10)/(J10-J9)</f>
+        <v>8210.9090909090919</v>
+      </c>
+      <c r="V10" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S10,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>8210.9090909090919</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>8210</v>
       </c>
-      <c r="W10">
+      <c r="X10">
+        <v>15</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>8210</v>
+      </c>
+      <c r="Z10">
         <v>285</v>
       </c>
-      <c r="X10">
+      <c r="AA10">
+        <f t="shared" si="2"/>
+        <v>475.94202898550725</v>
+      </c>
+      <c r="AC10">
         <f t="shared" si="0"/>
-        <v>475.94202898550725</v>
-      </c>
-      <c r="Z10">
-        <f>_nVolume/W10</f>
         <v>8200.5684210526324</v>
       </c>
-      <c r="AC10">
+      <c r="AF10">
         <v>15</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AG10" s="1">
         <v>9490</v>
       </c>
-      <c r="AE10">
+      <c r="AH10">
         <v>26.5</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AI10" s="1">
         <v>2446</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="U11">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>458</v>
+      </c>
+      <c r="F11">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11">
+        <v>16.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>7560</v>
+      </c>
+      <c r="L11" s="3">
+        <f>_nVolume/K11</f>
+        <v>309.1484126984127</v>
+      </c>
+      <c r="N11">
+        <f>B16*E11</f>
+        <v>2339006</v>
+      </c>
+      <c r="O11">
+        <f>_nVolume/B16</f>
+        <v>457.63892696299195</v>
+      </c>
+      <c r="P11">
+        <v>7560</v>
+      </c>
+      <c r="Q11">
+        <f>O11*J11</f>
+        <v>7551.0422948893674</v>
+      </c>
+      <c r="S11">
         <v>16</v>
       </c>
-      <c r="V11" s="1">
+      <c r="U11" s="4">
+        <f>((J11-S11)*K10+(S11-J10)*K11)/(J11-J10)</f>
+        <v>7778.1818181818171</v>
+      </c>
+      <c r="V11" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S11,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>7778.181818181818</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>7780</v>
       </c>
-      <c r="W11">
+      <c r="X11">
+        <v>16</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>7780</v>
+      </c>
+      <c r="Z11">
         <v>301</v>
       </c>
-      <c r="X11">
+      <c r="AA11">
+        <f t="shared" si="2"/>
+        <v>422.82608695652175</v>
+      </c>
+      <c r="AC11">
         <f t="shared" si="0"/>
-        <v>422.82608695652175</v>
-      </c>
-      <c r="Z11">
-        <f>_nVolume/W11</f>
         <v>7764.6578073089704</v>
       </c>
-      <c r="AC11">
+      <c r="AF11">
         <v>16</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AG11" s="1">
         <v>8990</v>
       </c>
-      <c r="AE11">
+      <c r="AH11">
         <v>23.5</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AI11" s="1">
         <v>2755</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>130</v>
       </c>
@@ -1320,103 +1542,171 @@
         <v>32</v>
       </c>
       <c r="E12">
-        <v>595</v>
+        <v>401</v>
       </c>
       <c r="F12">
-        <v>24.8</v>
+        <v>16.7</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12">
-        <v>14.3</v>
-      </c>
-      <c r="J12" s="1">
-        <v>8510</v>
-      </c>
-      <c r="K12">
-        <v>274.8</v>
-      </c>
-      <c r="M12">
-        <f>B12*E12</f>
-        <v>2338350</v>
+        <v>46</v>
+      </c>
+      <c r="J12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>7060</v>
+      </c>
+      <c r="L12" s="3">
+        <f>_nVolume/K12</f>
+        <v>331.04277620396601</v>
       </c>
       <c r="N12">
-        <f>_nVolume/B12</f>
-        <v>594.69770992366409</v>
+        <f>B18*E12</f>
+        <v>2334622</v>
       </c>
       <c r="O12">
-        <v>8510</v>
+        <f>_nVolume/B18</f>
+        <v>401.43627619374786</v>
       </c>
       <c r="P12">
-        <f>N12*I12</f>
-        <v>8504.177251908397</v>
-      </c>
-      <c r="U12">
+        <v>7060</v>
+      </c>
+      <c r="Q12">
+        <f>O12*J12</f>
+        <v>7065.2784610099625</v>
+      </c>
+      <c r="S12">
         <v>17</v>
       </c>
-      <c r="V12" s="1">
+      <c r="U12" s="4">
+        <f>((J12-S12)*K11+(S12-J11)*K12)/(J12-J11)</f>
+        <v>7332.727272727273</v>
+      </c>
+      <c r="V12" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S12,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>7332.7272727272721</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>7330</v>
       </c>
-      <c r="W12">
+      <c r="X12">
+        <v>17</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>7330</v>
+      </c>
+      <c r="Z12">
         <v>319.2</v>
       </c>
-      <c r="X12">
+      <c r="AA12">
+        <f t="shared" si="2"/>
+        <v>374.93606138107424</v>
+      </c>
+      <c r="AC12">
         <f t="shared" si="0"/>
-        <v>374.93606138107424</v>
-      </c>
-      <c r="Z12">
-        <f>_nVolume/W12</f>
         <v>7321.9360902255639</v>
       </c>
-      <c r="AC12">
+      <c r="AF12">
         <v>17</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AG12" s="1">
         <v>8470</v>
       </c>
-      <c r="AE12">
+      <c r="AH12">
         <v>20.8</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AI12" s="1">
         <v>3104</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="U13">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>352</v>
+      </c>
+      <c r="F13">
+        <v>14.7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13">
+        <v>18.7</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6580</v>
+      </c>
+      <c r="L13" s="3">
+        <f>_nVolume/K13</f>
+        <v>355.19179331306992</v>
+      </c>
+      <c r="N13">
+        <f>B20*E13</f>
+        <v>2335872</v>
+      </c>
+      <c r="O13">
+        <f>_nVolume/B20</f>
+        <v>352.19439421338154</v>
+      </c>
+      <c r="P13">
+        <v>6580</v>
+      </c>
+      <c r="Q13">
+        <f>O13*J13</f>
+        <v>6586.0351717902349</v>
+      </c>
+      <c r="S13">
         <v>18</v>
       </c>
-      <c r="V13" s="1">
+      <c r="U13" s="4">
+        <f>((J13-S13)*K12+(S13-J12)*K13)/(J13-J12)</f>
+        <v>6885.454545454546</v>
+      </c>
+      <c r="V13" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S13,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>6885.4545454545441</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>6890</v>
       </c>
-      <c r="W13">
+      <c r="X13">
+        <v>18</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>6890</v>
+      </c>
+      <c r="Z13">
         <v>339.6</v>
       </c>
-      <c r="X13">
+      <c r="AA13">
+        <f t="shared" si="2"/>
+        <v>332.85024154589371</v>
+      </c>
+      <c r="AC13">
         <f t="shared" si="0"/>
-        <v>332.85024154589371</v>
-      </c>
-      <c r="Z13">
-        <f>_nVolume/W13</f>
         <v>6882.1024734982329</v>
       </c>
-      <c r="AC13">
+      <c r="AF13">
         <v>18</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AG13" s="1">
         <v>7960</v>
       </c>
-      <c r="AE13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF13" s="1">
+      <c r="AH13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI13" s="1">
         <v>3496</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>140</v>
       </c>
@@ -1430,103 +1720,171 @@
         <v>36</v>
       </c>
       <c r="E14">
-        <v>522</v>
+        <v>309</v>
       </c>
       <c r="F14">
-        <v>21.8</v>
+        <v>12.9</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14">
-        <v>15.4</v>
-      </c>
-      <c r="J14" s="1">
-        <v>8040</v>
-      </c>
-      <c r="K14">
-        <v>290.89999999999998</v>
-      </c>
-      <c r="M14">
-        <f>B14*E14</f>
-        <v>2338560</v>
+        <v>54</v>
+      </c>
+      <c r="J14">
+        <v>19.8</v>
+      </c>
+      <c r="K14" s="1">
+        <v>6120</v>
+      </c>
+      <c r="L14" s="3">
+        <f>_nVolume/K14</f>
+        <v>381.8892156862745</v>
       </c>
       <c r="N14">
-        <f>_nVolume/B14</f>
-        <v>521.68794642857142</v>
+        <f>B22*E14</f>
+        <v>2337585</v>
       </c>
       <c r="O14">
-        <v>8040</v>
+        <f>_nVolume/B22</f>
+        <v>308.94408460013221</v>
       </c>
       <c r="P14">
-        <f>N14*I14</f>
-        <v>8033.9943750000002</v>
-      </c>
-      <c r="U14">
+        <v>6120</v>
+      </c>
+      <c r="Q14">
+        <f>O14*J14</f>
+        <v>6117.0928750826179</v>
+      </c>
+      <c r="S14">
         <v>19</v>
       </c>
-      <c r="V14" s="1">
+      <c r="U14" s="4">
+        <f>((J14-S14)*K13+(S14-J13)*K14)/(J14-J13)</f>
+        <v>6454.545454545454</v>
+      </c>
+      <c r="V14" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S14,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>6454.5454545454531</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>6450</v>
       </c>
-      <c r="W14">
+      <c r="X14">
+        <v>19</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>6450</v>
+      </c>
+      <c r="Z14">
         <v>362.3</v>
       </c>
-      <c r="X14">
+      <c r="AA14">
+        <f t="shared" si="2"/>
+        <v>295.19450800915337</v>
+      </c>
+      <c r="AC14">
         <f t="shared" si="0"/>
-        <v>295.19450800915337</v>
-      </c>
-      <c r="Z14">
-        <f>_nVolume/W14</f>
         <v>6450.9025669334806</v>
       </c>
-      <c r="AC14">
+      <c r="AF14">
         <v>19</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AG14" s="1">
         <v>7460</v>
       </c>
-      <c r="AE14">
+      <c r="AH14">
         <v>16.399999999999999</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AI14" s="1">
         <v>3937</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="U15">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>271</v>
+      </c>
+      <c r="F15">
+        <v>11.3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15">
+        <v>20.8</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5640</v>
+      </c>
+      <c r="L15" s="3">
+        <f>_nVolume/K15</f>
+        <v>414.3904255319149</v>
+      </c>
+      <c r="N15">
+        <f>B24*E15</f>
+        <v>2336833</v>
+      </c>
+      <c r="O15">
+        <f>_nVolume/B24</f>
+        <v>271.03815377478838</v>
+      </c>
+      <c r="P15">
+        <v>5640</v>
+      </c>
+      <c r="Q15">
+        <f>O15*J15</f>
+        <v>5637.5935985155984</v>
+      </c>
+      <c r="S15">
         <v>20</v>
       </c>
-      <c r="V15" s="1">
+      <c r="U15" s="4">
+        <f>((J15-S15)*K14+(S15-J14)*K15)/(J15-J14)</f>
+        <v>6024</v>
+      </c>
+      <c r="V15" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S15,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>6024</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>6020</v>
       </c>
-      <c r="W15">
+      <c r="X15">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>6020</v>
+      </c>
+      <c r="Z15">
         <v>388.6</v>
       </c>
-      <c r="X15">
+      <c r="AA15">
+        <f t="shared" si="2"/>
+        <v>261.73913043478262</v>
+      </c>
+      <c r="AC15">
         <f t="shared" si="0"/>
-        <v>261.73913043478262</v>
-      </c>
-      <c r="Z15">
-        <f>_nVolume/W15</f>
         <v>6014.3129181677814</v>
       </c>
-      <c r="AC15">
+      <c r="AF15">
         <v>20</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AG15" s="1">
         <v>6960</v>
       </c>
-      <c r="AE15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF15" s="1">
+      <c r="AH15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI15" s="1">
         <v>4444</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>150</v>
       </c>
@@ -1540,103 +1898,172 @@
         <v>40</v>
       </c>
       <c r="E16">
-        <v>458</v>
+        <v>238</v>
       </c>
       <c r="F16">
-        <v>19.100000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16">
-        <v>16.5</v>
-      </c>
-      <c r="J16" s="1">
-        <v>7560</v>
-      </c>
-      <c r="K16">
-        <v>309.5</v>
-      </c>
-      <c r="M16">
-        <f>B16*E16</f>
-        <v>2339006</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <v>21.8</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5190</v>
+      </c>
+      <c r="L16" s="3">
+        <f>_nVolume/K16</f>
+        <v>450.32023121387283</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16">
-        <f>_nVolume/B16</f>
-        <v>457.63892696299195</v>
+        <f>B28*E16</f>
+        <v>2339540</v>
       </c>
       <c r="O16">
-        <v>7560</v>
+        <f>_nVolume/B28</f>
+        <v>237.75808748728383</v>
       </c>
       <c r="P16">
-        <f>N16*I16</f>
-        <v>7551.0422948893674</v>
-      </c>
-      <c r="U16">
+        <v>5190</v>
+      </c>
+      <c r="Q16">
+        <f>O16*J16</f>
+        <v>5183.1263072227875</v>
+      </c>
+      <c r="S16">
         <v>21</v>
       </c>
-      <c r="V16" s="1">
+      <c r="U16" s="4">
+        <f>((J16-S16)*K15+(S16-J15)*K16)/(J16-J15)</f>
         <v>5550</v>
       </c>
-      <c r="W16">
+      <c r="V16" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S16,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>5550</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>5550</v>
+      </c>
+      <c r="X16">
+        <v>21</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>5550</v>
+      </c>
+      <c r="Z16">
         <v>421.9</v>
       </c>
-      <c r="X16">
+      <c r="AA16">
+        <f t="shared" si="2"/>
+        <v>229.8136645962733</v>
+      </c>
+      <c r="AC16">
         <f t="shared" si="0"/>
-        <v>229.8136645962733</v>
-      </c>
-      <c r="Z16">
-        <f>_nVolume/W16</f>
         <v>5539.6112822943833</v>
       </c>
-      <c r="AC16">
+      <c r="AF16">
         <v>21</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AG16" s="1">
         <v>6410</v>
       </c>
-      <c r="AE16">
+      <c r="AH16">
         <v>12.7</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AI16" s="1">
         <v>5065</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="U17">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>209</v>
+      </c>
+      <c r="F17">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17">
+        <v>22.8</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4770</v>
+      </c>
+      <c r="L17" s="3">
+        <f>_nVolume/K17</f>
+        <v>489.97106918238995</v>
+      </c>
+      <c r="N17">
+        <f>B30*E17</f>
+        <v>2341845</v>
+      </c>
+      <c r="O17">
+        <f>_nVolume/B30</f>
+        <v>208.58206157965193</v>
+      </c>
+      <c r="P17">
+        <v>4770</v>
+      </c>
+      <c r="Q17">
+        <f>O17*J17</f>
+        <v>4755.6710040160642</v>
+      </c>
+      <c r="S17">
         <v>22</v>
       </c>
-      <c r="V17" s="1">
+      <c r="U17" s="4">
+        <f>((J17-S17)*K16+(S17-J16)*K17)/(J17-J16)</f>
+        <v>5106</v>
+      </c>
+      <c r="V17" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S17,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>5106</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>5110</v>
       </c>
-      <c r="W17">
+      <c r="X17">
+        <v>22</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>5110</v>
+      </c>
+      <c r="Z17">
         <v>459</v>
       </c>
-      <c r="X17">
+      <c r="AA17">
+        <f t="shared" si="2"/>
+        <v>201.97628458498025</v>
+      </c>
+      <c r="AC17">
         <f t="shared" si="0"/>
-        <v>201.97628458498025</v>
-      </c>
-      <c r="Z17">
-        <f>_nVolume/W17</f>
         <v>5091.8562091503272</v>
       </c>
-      <c r="AC17">
+      <c r="AF17">
         <v>22</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AG17" s="1">
         <v>5910</v>
       </c>
-      <c r="AE17">
+      <c r="AH17">
         <v>11.2</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AI17" s="1">
         <v>5774</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>160</v>
       </c>
@@ -1650,103 +2077,146 @@
         <v>44</v>
       </c>
       <c r="E18">
-        <v>401</v>
+        <v>183</v>
       </c>
       <c r="F18">
-        <v>16.7</v>
+        <v>7.6</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="J18" s="1">
-        <v>7060</v>
-      </c>
-      <c r="K18">
-        <v>330.8</v>
-      </c>
-      <c r="M18">
-        <f>B18*E18</f>
-        <v>2334622</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J18">
+        <v>23.9</v>
+      </c>
+      <c r="K18" s="1">
+        <v>4370</v>
+      </c>
+      <c r="L18" s="3">
+        <f>_nVolume/K18</f>
+        <v>534.81967963386728</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18">
-        <f>_nVolume/B18</f>
-        <v>401.43627619374786</v>
+        <f>B32*E18</f>
+        <v>2337459</v>
       </c>
       <c r="O18">
-        <v>7060</v>
+        <f>_nVolume/B32</f>
+        <v>182.97674782744852</v>
       </c>
       <c r="P18">
-        <f>N18*I18</f>
-        <v>7065.2784610099625</v>
-      </c>
-      <c r="U18">
+        <v>4370</v>
+      </c>
+      <c r="Q18">
+        <f>O18*J18</f>
+        <v>4373.1442730760191</v>
+      </c>
+      <c r="S18">
         <v>23</v>
       </c>
-      <c r="V18" s="1">
+      <c r="U18" s="4">
+        <f>((J18-S18)*K17+(S18-J17)*K18)/(J18-J17)</f>
+        <v>4697.2727272727279</v>
+      </c>
+      <c r="V18" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S18,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>4697.2727272727279</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>4700</v>
       </c>
-      <c r="W18">
+      <c r="X18">
+        <v>23</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>4700</v>
+      </c>
+      <c r="Z18">
         <v>499.2</v>
       </c>
-      <c r="X18">
+      <c r="AA18">
+        <f t="shared" si="2"/>
+        <v>177.69376181474482</v>
+      </c>
+      <c r="AC18">
         <f t="shared" si="0"/>
-        <v>177.69376181474482</v>
-      </c>
-      <c r="Z18">
-        <f>_nVolume/W18</f>
         <v>4681.8149038461543</v>
       </c>
-      <c r="AC18">
+      <c r="AF18">
         <v>23</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AG18" s="1">
         <v>5430</v>
       </c>
-      <c r="AE18">
+      <c r="AH18">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AI18" s="1">
         <v>6566</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="U19">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4020</v>
+      </c>
+      <c r="L19" s="3">
+        <f>_nVolume/K19</f>
+        <v>581.38358208955219</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="S19">
         <v>24</v>
       </c>
-      <c r="V19" s="1">
+      <c r="U19" s="4">
+        <f>((J19-S19)*K18+(S19-J18)*K19)/(J19-J18)</f>
+        <v>4338.1818181818171</v>
+      </c>
+      <c r="V19" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S19,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>4338.181818181818</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>4340</v>
       </c>
-      <c r="W19">
+      <c r="X19">
+        <v>24</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>4340</v>
+      </c>
+      <c r="Z19">
         <v>538.79999999999995</v>
       </c>
-      <c r="X19">
+      <c r="AA19">
+        <f t="shared" si="2"/>
+        <v>157.24637681159422</v>
+      </c>
+      <c r="AC19">
         <f t="shared" si="0"/>
-        <v>157.24637681159422</v>
-      </c>
-      <c r="Z19">
-        <f>_nVolume/W19</f>
         <v>4337.7171492204907</v>
       </c>
-      <c r="AC19">
+      <c r="AF19">
         <v>24</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AG19" s="1">
         <v>5020</v>
       </c>
-      <c r="AE19">
+      <c r="AH19">
         <v>87</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AI19" s="1">
         <v>7392</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>170</v>
       </c>
@@ -1759,104 +2229,142 @@
       <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="E20">
-        <v>352</v>
+      <c r="E20" t="s">
+        <v>72</v>
       </c>
       <c r="F20">
-        <v>14.7</v>
+        <v>6.7</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20">
-        <v>18.7</v>
-      </c>
-      <c r="J20" s="1">
-        <v>6580</v>
-      </c>
-      <c r="K20">
-        <v>354.9</v>
-      </c>
-      <c r="M20">
-        <f>B20*E20</f>
-        <v>2335872</v>
-      </c>
-      <c r="N20">
-        <f>_nVolume/B20</f>
-        <v>352.19439421338154</v>
-      </c>
-      <c r="O20">
-        <v>6580</v>
-      </c>
-      <c r="P20">
-        <f>N20*I20</f>
-        <v>6586.0351717902349</v>
-      </c>
-      <c r="U20">
+        <v>74</v>
+      </c>
+      <c r="J20">
+        <v>26</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3670</v>
+      </c>
+      <c r="L20" s="3">
+        <f>_nVolume/K20</f>
+        <v>636.82888283378747</v>
+      </c>
+      <c r="S20">
         <v>25</v>
       </c>
-      <c r="V20" s="1">
+      <c r="U20" s="4">
+        <f>((J20-S20)*K19+(S20-J19)*K20)/(J20-J19)</f>
         <v>4020</v>
       </c>
-      <c r="W20">
+      <c r="V20" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S20,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>4020</v>
+      </c>
+      <c r="W20" s="4">
+        <f ca="1">ROUND(V20,-1)</f>
+        <v>4020</v>
+      </c>
+      <c r="X20">
+        <v>25</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>4020</v>
+      </c>
+      <c r="Z20">
         <v>682.4</v>
       </c>
-      <c r="X20">
+      <c r="AA20">
+        <f t="shared" si="2"/>
+        <v>139.82608695652175</v>
+      </c>
+      <c r="AC20">
         <f t="shared" si="0"/>
-        <v>139.82608695652175</v>
-      </c>
-      <c r="Z20">
-        <f>_nVolume/W20</f>
         <v>3424.9150058616647</v>
       </c>
-      <c r="AC20">
+      <c r="AF20">
         <v>25</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AG20" s="1">
         <v>4650</v>
       </c>
-      <c r="AE20">
+      <c r="AH20">
         <v>7.7</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AI20" s="1">
         <v>8320</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="U21">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21">
+        <v>5.9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21">
+        <v>27</v>
+      </c>
+      <c r="K21" s="1">
+        <v>3350</v>
+      </c>
+      <c r="L21" s="3">
+        <f>_nVolume/K21</f>
+        <v>697.6602985074627</v>
+      </c>
+      <c r="S21">
         <v>26</v>
       </c>
-      <c r="V21" s="1">
+      <c r="U21" s="4">
+        <f>((J21-S21)*K20+(S21-J20)*K21)/(J21-J20)</f>
         <v>3670</v>
       </c>
-      <c r="W21">
+      <c r="V21" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S21,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>3670</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3670</v>
+      </c>
+      <c r="X21">
+        <v>26</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>3670</v>
+      </c>
+      <c r="Z21">
         <v>638.29999999999995</v>
       </c>
-      <c r="X21">
+      <c r="AA21">
+        <f t="shared" si="2"/>
+        <v>122.74247491638796</v>
+      </c>
+      <c r="AC21">
         <f t="shared" si="0"/>
-        <v>122.74247491638796</v>
-      </c>
-      <c r="Z21">
-        <f>_nVolume/W21</f>
         <v>3661.5415948613509</v>
       </c>
-      <c r="AC21">
+      <c r="AF21">
         <v>26</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AG21" s="1">
         <v>4240</v>
       </c>
-      <c r="AE21">
+      <c r="AH21">
         <v>6.8</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AI21" s="1">
         <v>9484</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>180</v>
       </c>
@@ -1869,104 +2377,144 @@
       <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="E22">
-        <v>309</v>
+      <c r="E22" t="s">
+        <v>82</v>
       </c>
       <c r="F22">
-        <v>12.9</v>
+        <v>5.2</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22">
-        <v>19.8</v>
-      </c>
-      <c r="J22" s="1">
-        <v>6120</v>
-      </c>
-      <c r="K22">
-        <v>382.1</v>
-      </c>
-      <c r="M22">
-        <f>B22*E22</f>
-        <v>2337585</v>
-      </c>
-      <c r="N22">
-        <f>_nVolume/B22</f>
-        <v>308.94408460013221</v>
-      </c>
-      <c r="O22">
-        <v>6120</v>
-      </c>
-      <c r="P22">
-        <f>N22*I22</f>
-        <v>6117.0928750826179</v>
-      </c>
-      <c r="U22">
+        <v>84</v>
+      </c>
+      <c r="J22">
+        <v>28</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3020</v>
+      </c>
+      <c r="L22" s="3">
+        <f>_nVolume/K22</f>
+        <v>773.89470198675497</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="S22">
         <v>27</v>
       </c>
-      <c r="V22" s="1">
+      <c r="U22" s="4">
+        <f>((J22-S22)*K21+(S22-J21)*K22)/(J22-J21)</f>
         <v>3350</v>
       </c>
-      <c r="W22">
+      <c r="V22" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S22,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>3350</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3350</v>
+      </c>
+      <c r="X22">
+        <v>27</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>3350</v>
+      </c>
+      <c r="Z22">
         <v>700.7</v>
       </c>
-      <c r="X22">
+      <c r="AA22">
+        <f t="shared" si="2"/>
+        <v>107.89049919484702</v>
+      </c>
+      <c r="AC22">
         <f t="shared" si="0"/>
-        <v>107.89049919484702</v>
-      </c>
-      <c r="Z22">
-        <f>_nVolume/W22</f>
         <v>3335.4673897531038</v>
       </c>
-      <c r="AC22">
+      <c r="AF22">
         <v>27</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AG22" s="1">
         <v>3870</v>
       </c>
-      <c r="AE22">
+      <c r="AH22">
         <v>6</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AI22" s="1">
         <v>10811</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="U23">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23">
+        <v>4.5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23">
+        <v>28.9</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2750</v>
+      </c>
+      <c r="L23" s="3">
+        <f>_nVolume/K23</f>
+        <v>849.87709090909095</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="S23">
         <v>28</v>
       </c>
-      <c r="V23" s="1">
+      <c r="U23" s="4">
+        <f>((J23-S23)*K22+(S23-J22)*K23)/(J23-J22)</f>
         <v>3020</v>
       </c>
-      <c r="W23">
+      <c r="V23" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S23,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>3020</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>3020</v>
+      </c>
+      <c r="X23">
+        <v>28</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>3020</v>
+      </c>
+      <c r="Z23">
         <v>770.2</v>
       </c>
-      <c r="X23">
+      <c r="AA23">
+        <f t="shared" si="2"/>
+        <v>93.788819875776412</v>
+      </c>
+      <c r="AC23">
         <f t="shared" si="0"/>
-        <v>93.788819875776412</v>
-      </c>
-      <c r="Z23">
-        <f>_nVolume/W23</f>
         <v>3034.4871461957932</v>
       </c>
-      <c r="AC23">
+      <c r="AF23">
         <v>28</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AG23" s="1">
         <v>3490</v>
       </c>
-      <c r="AE23">
+      <c r="AH23">
         <v>5.2</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AI23" s="1">
         <v>12324</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>190</v>
       </c>
@@ -1979,571 +2527,460 @@
       <c r="D24" t="s">
         <v>56</v>
       </c>
-      <c r="E24">
-        <v>271</v>
+      <c r="E24" t="s">
+        <v>92</v>
       </c>
       <c r="F24">
-        <v>11.3</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24">
-        <v>20.8</v>
-      </c>
-      <c r="J24" s="1">
-        <v>5640</v>
+        <v>94</v>
+      </c>
+      <c r="J24">
+        <v>29.7</v>
       </c>
       <c r="K24">
-        <v>414.6</v>
-      </c>
-      <c r="M24">
-        <f>B24*E24</f>
-        <v>2336833</v>
-      </c>
-      <c r="N24">
-        <f>_nVolume/B24</f>
-        <v>271.03815377478838</v>
-      </c>
-      <c r="O24">
-        <v>5640</v>
-      </c>
-      <c r="P24">
-        <f>N24*I24</f>
-        <v>5637.5935985155984</v>
-      </c>
-      <c r="U24">
+        <v>2470</v>
+      </c>
+      <c r="L24" s="3">
+        <f>_nVolume/K24</f>
+        <v>946.21943319838056</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="S24">
         <v>29</v>
       </c>
-      <c r="V24" s="1">
+      <c r="U24" s="4">
+        <f>((J24-S24)*K23+(S24-J23)*K24)/(J24-J23)</f>
+        <v>2714.9999999999991</v>
+      </c>
+      <c r="V24" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S24,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>2715</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" ca="1" si="1"/>
         <v>2720</v>
       </c>
-      <c r="W24">
+      <c r="X24">
+        <v>29</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>2720</v>
+      </c>
+      <c r="Z24">
         <v>862.3</v>
       </c>
-      <c r="X24">
+      <c r="AA24">
+        <f t="shared" si="2"/>
+        <v>81.559220389805105</v>
+      </c>
+      <c r="AC24">
         <f t="shared" si="0"/>
-        <v>81.559220389805105</v>
-      </c>
-      <c r="Z24">
-        <f>_nVolume/W24</f>
         <v>2710.3815377478836</v>
       </c>
-      <c r="AC24">
+      <c r="AF24">
         <v>29</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AG24" s="1">
         <v>3140</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AH24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>14294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>30.4</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2220</v>
+      </c>
+      <c r="L25" s="3">
+        <f>_nVolume/K25</f>
+        <v>1052.7756756756758</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="S25">
+        <v>30</v>
+      </c>
+      <c r="U25" s="4">
+        <f>((J25-S25)*K24+(S25-J24)*K25)/(J25-J24)</f>
+        <v>2362.8571428571427</v>
+      </c>
+      <c r="V25" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S25,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>2362.8571428571431</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2360</v>
+      </c>
+      <c r="X25">
+        <v>30</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>2360</v>
+      </c>
+      <c r="Z25">
+        <v>989.5</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="2"/>
+        <v>68.405797101449281</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="0"/>
+        <v>2361.9626073774634</v>
+      </c>
+      <c r="AF25">
+        <v>30</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>2730</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>16974</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>31.1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1990</v>
+      </c>
+      <c r="L26" s="3">
+        <f>_nVolume/K26</f>
+        <v>1174.4532663316584</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="S26">
+        <v>31</v>
+      </c>
+      <c r="U26" s="4">
+        <f>((J26-S26)*K25+(S26-J25)*K26)/(J26-J25)</f>
+        <v>2022.8571428571431</v>
+      </c>
+      <c r="V26" s="4">
+        <f ca="1">_xlfn.LET(_xlpm.NewX, S26,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <v>2022.8571428571431</v>
+      </c>
+      <c r="W26" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="X26">
+        <v>31</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>2020</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>1153.7</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="2"/>
+        <v>56.661991584852736</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="0"/>
+        <v>2025.797000953454</v>
+      </c>
+      <c r="AF26">
+        <v>31</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>2330</v>
+      </c>
+      <c r="AH26" t="s">
         <v>132</v>
       </c>
-      <c r="AF24" s="1">
-        <v>14294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="U25">
-        <v>30</v>
-      </c>
-      <c r="V25" s="1">
-        <v>2360</v>
-      </c>
-      <c r="W25">
-        <v>989.5</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="0"/>
-        <v>68.405797101449281</v>
-      </c>
-      <c r="Z25">
-        <f>_nVolume/W25</f>
-        <v>2361.9626073774634</v>
-      </c>
-      <c r="AC25">
-        <v>30</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>2730</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>16974</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="AI26" s="1">
+        <v>20443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>200</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B28" s="1">
         <v>9830</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>60</v>
       </c>
-      <c r="E26">
-        <v>238</v>
-      </c>
-      <c r="F26">
-        <v>9.9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26">
-        <v>21.8</v>
-      </c>
-      <c r="J26" s="1">
-        <v>5190</v>
-      </c>
-      <c r="K26">
-        <v>450.9</v>
-      </c>
-      <c r="M26">
-        <f>B26*E26</f>
-        <v>2339540</v>
-      </c>
-      <c r="N26">
-        <f>_nVolume/B26</f>
-        <v>237.75808748728383</v>
-      </c>
-      <c r="O26">
-        <v>5190</v>
-      </c>
-      <c r="P26">
-        <f>N26*I26</f>
-        <v>5183.1263072227875</v>
-      </c>
-      <c r="U26">
-        <v>31</v>
-      </c>
-      <c r="V26" s="1">
-        <v>2020</v>
-      </c>
-      <c r="W26" s="2">
-        <v>1153.7</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="0"/>
-        <v>56.661991584852736</v>
-      </c>
-      <c r="Z26">
-        <f>_nVolume/W26</f>
-        <v>2025.797000953454</v>
-      </c>
-      <c r="AC26">
-        <v>31</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>2330</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>20443</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28">
+        <v>3.5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28">
+        <v>943.6</v>
+      </c>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>210</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B30" s="1">
         <v>11205</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>63</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="E28">
-        <v>209</v>
-      </c>
-      <c r="F28">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28">
-        <v>22.8</v>
-      </c>
-      <c r="J28" s="1">
-        <v>4770</v>
-      </c>
-      <c r="K28">
-        <v>491.4</v>
-      </c>
-      <c r="M28">
-        <f>B28*E28</f>
-        <v>2341845</v>
-      </c>
-      <c r="N28">
-        <f>_nVolume/B28</f>
-        <v>208.58206157965193</v>
-      </c>
-      <c r="O28">
-        <v>4770</v>
-      </c>
-      <c r="P28">
-        <f>N28*I28</f>
-        <v>4755.6710040160642</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1050.8</v>
+      </c>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>220</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B32" s="1">
         <v>12773</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D32" s="1">
         <v>7299</v>
       </c>
-      <c r="E30">
-        <v>183</v>
-      </c>
-      <c r="F30">
-        <v>7.6</v>
-      </c>
-      <c r="G30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30">
-        <v>23.9</v>
-      </c>
-      <c r="J30" s="1">
-        <v>4370</v>
-      </c>
-      <c r="K30">
-        <v>534.4</v>
-      </c>
-      <c r="M30">
-        <f>B30*E30</f>
-        <v>2337459</v>
-      </c>
-      <c r="N30">
-        <f>_nVolume/B30</f>
-        <v>182.97674782744852</v>
-      </c>
-      <c r="O30">
-        <v>4370</v>
-      </c>
-      <c r="P30">
-        <f>N30*I30</f>
-        <v>4373.1442730760191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32">
+        <v>2.7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" t="s">
+        <v>113</v>
+      </c>
+      <c r="J32" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32" t="s">
+        <v>115</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1170.9000000000001</v>
+      </c>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33">
+        <v>2.6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" t="s">
+        <v>122</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1182.5</v>
+      </c>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>230</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B34" s="1">
         <v>14560</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>70</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>71</v>
       </c>
-      <c r="E32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32">
-        <v>6.7</v>
-      </c>
-      <c r="G32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>240</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B35" s="1">
         <v>16597</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>75</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>76</v>
       </c>
-      <c r="E33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33">
-        <v>5.9</v>
-      </c>
-      <c r="G33" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>250</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B36" s="1">
         <v>18920</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>80</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>81</v>
       </c>
-      <c r="E34" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34">
-        <v>5.2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>260</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B37" s="1">
         <v>21567</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>85</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>86</v>
       </c>
-      <c r="E35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35">
-        <v>4.5</v>
-      </c>
-      <c r="G35" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>270</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B38" s="1">
         <v>24584</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>90</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>91</v>
       </c>
-      <c r="E36" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" t="s">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>280</v>
+      </c>
+      <c r="B40" s="1">
+        <v>28024</v>
+      </c>
+      <c r="C40" t="s">
         <v>95</v>
       </c>
-      <c r="J36" t="s">
+      <c r="D40" t="s">
         <v>96</v>
       </c>
-      <c r="K36">
-        <v>850.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>280</v>
-      </c>
-      <c r="B38" s="1">
-        <v>28024</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38">
-        <v>3.5</v>
-      </c>
-      <c r="G38" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" t="s">
-        <v>101</v>
-      </c>
-      <c r="I38" t="s">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>290</v>
+      </c>
+      <c r="B42" s="1">
+        <v>31945</v>
+      </c>
+      <c r="C42" t="s">
         <v>102</v>
       </c>
-      <c r="J38" t="s">
+      <c r="D42" t="s">
         <v>103</v>
       </c>
-      <c r="K38">
-        <v>943.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>290</v>
-      </c>
-      <c r="B40" s="1">
-        <v>31945</v>
-      </c>
-      <c r="C40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" t="s">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>300</v>
+      </c>
+      <c r="B44" s="1">
+        <v>36414</v>
+      </c>
+      <c r="C44" t="s">
         <v>109</v>
       </c>
-      <c r="J40" t="s">
+      <c r="D44" t="s">
         <v>110</v>
       </c>
-      <c r="K40" s="2">
-        <v>1050.8</v>
-      </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>300</v>
-      </c>
-      <c r="B42" s="1">
-        <v>36414</v>
-      </c>
-      <c r="C42" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42">
-        <v>2.7</v>
-      </c>
-      <c r="G42" t="s">
-        <v>114</v>
-      </c>
-      <c r="H42" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" t="s">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>301</v>
+      </c>
+      <c r="B45" s="1">
+        <v>36894</v>
+      </c>
+      <c r="C45" t="s">
         <v>116</v>
       </c>
-      <c r="J42" t="s">
+      <c r="D45" t="s">
         <v>117</v>
       </c>
-      <c r="K42" s="2">
-        <v>1170.9000000000001</v>
-      </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>301</v>
-      </c>
-      <c r="B43" s="1">
-        <v>36894</v>
-      </c>
-      <c r="C43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43">
-        <v>2.6</v>
-      </c>
-      <c r="G43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H43" t="s">
-        <v>122</v>
-      </c>
-      <c r="I43" t="s">
-        <v>123</v>
-      </c>
-      <c r="J43" t="s">
-        <v>124</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1182.5</v>
-      </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="W7:W26 Y7:Y26">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WW2_Ship_Analysis/LexingtonVsYorktownFuelUsage/LexingtonYorktownPrework.xlsx
+++ b/WW2_Ship_Analysis/LexingtonVsYorktownFuelUsage/LexingtonYorktownPrework.xlsx
@@ -2,21 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PythonExercises\WW2_Ship_Analysis\LexingtonVsYorktownFuelUsage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013F8529-C158-4B71-9DFA-1A283D832B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15218EE-B5C0-4A11-A91F-2D96272A214D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{12029E8E-7F84-4CF1-B9E8-BAF5EF97425C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{12029E8E-7F84-4CF1-B9E8-BAF5EF97425C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ScratchWork" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_nVolume">Sheet1!$N$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ScratchWork!$S$42:$T$94</definedName>
+    <definedName name="_nVcv3" localSheetId="1">Sheet1!$C$6</definedName>
+    <definedName name="_nVcv9" localSheetId="0">ScratchWork!$V$37</definedName>
+    <definedName name="_nVcv9" localSheetId="1">Sheet1!$H$6</definedName>
+    <definedName name="_nVolume">ScratchWork!$N$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="390">
   <si>
     <t>PROP. SPEED</t>
   </si>
@@ -459,33 +486,915 @@
   </si>
   <si>
     <t>Round</t>
+  </si>
+  <si>
+    <t>gal/nmi</t>
+  </si>
+  <si>
+    <t>Fuel Cap</t>
+  </si>
+  <si>
+    <t>Range (nmi)</t>
+  </si>
+  <si>
+    <t>gal</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>PROPELLER SPEED</t>
+  </si>
+  <si>
+    <t>Mean displacement 36,600 tons†</t>
+  </si>
+  <si>
+    <t>Mean displacement,32,600 tons</t>
+  </si>
+  <si>
+    <t>1,359-1,603</t>
+  </si>
+  <si>
+    <t>845±26</t>
+  </si>
+  <si>
+    <t>1,221±7</t>
+  </si>
+  <si>
+    <t>12.4±0.1</t>
+  </si>
+  <si>
+    <t>15,910±260</t>
+  </si>
+  <si>
+    <t>12.2±0.1</t>
+  </si>
+  <si>
+    <t>14,900±230</t>
+  </si>
+  <si>
+    <t>1,447-1,706</t>
+  </si>
+  <si>
+    <t>899±28</t>
+  </si>
+  <si>
+    <t>1,147±7</t>
+  </si>
+  <si>
+    <t>13.1±.1</t>
+  </si>
+  <si>
+    <t>15,800±260</t>
+  </si>
+  <si>
+    <t>12.9±.1</t>
+  </si>
+  <si>
+    <t>14,800±230</t>
+  </si>
+  <si>
+    <t>1,540-1,815</t>
+  </si>
+  <si>
+    <t>957±29</t>
+  </si>
+  <si>
+    <t>1,078±7</t>
+  </si>
+  <si>
+    <t>13.7±.1</t>
+  </si>
+  <si>
+    <t>15,520±260</t>
+  </si>
+  <si>
+    <t>13.5±.1</t>
+  </si>
+  <si>
+    <t>14,550±230</t>
+  </si>
+  <si>
+    <t>1,639-1,933</t>
+  </si>
+  <si>
+    <t>1,018±31</t>
+  </si>
+  <si>
+    <t>1,013±7</t>
+  </si>
+  <si>
+    <t>14.2±.1</t>
+  </si>
+  <si>
+    <t>14,380±230</t>
+  </si>
+  <si>
+    <t>1,745-2,057</t>
+  </si>
+  <si>
+    <t>1,084±33</t>
+  </si>
+  <si>
+    <t>951±7</t>
+  </si>
+  <si>
+    <t>15.0±.1</t>
+  </si>
+  <si>
+    <t>15,200±260</t>
+  </si>
+  <si>
+    <t>14.9±.1</t>
+  </si>
+  <si>
+    <t>14,170±230</t>
+  </si>
+  <si>
+    <t>1,857-2,190</t>
+  </si>
+  <si>
+    <t>1,154±35</t>
+  </si>
+  <si>
+    <t>894±6</t>
+  </si>
+  <si>
+    <t>15.7±.1</t>
+  </si>
+  <si>
+    <t>14,930±260</t>
+  </si>
+  <si>
+    <t>13,860±230</t>
+  </si>
+  <si>
+    <t>1,977-2,331</t>
+  </si>
+  <si>
+    <t>1,228±38</t>
+  </si>
+  <si>
+    <t>840±6</t>
+  </si>
+  <si>
+    <t>16.4±.1</t>
+  </si>
+  <si>
+    <t>14,660±260</t>
+  </si>
+  <si>
+    <t>16.2±.1</t>
+  </si>
+  <si>
+    <t>13,610±230</t>
+  </si>
+  <si>
+    <t>2,104-2,480</t>
+  </si>
+  <si>
+    <t>1,307±40</t>
+  </si>
+  <si>
+    <t>789±6</t>
+  </si>
+  <si>
+    <t>17.0±.1</t>
+  </si>
+  <si>
+    <t>14,090±260</t>
+  </si>
+  <si>
+    <t>16.9±.1</t>
+  </si>
+  <si>
+    <t>13,330±230</t>
+  </si>
+  <si>
+    <t>2,240-2,641</t>
+  </si>
+  <si>
+    <t>1,391±43</t>
+  </si>
+  <si>
+    <t>741±6</t>
+  </si>
+  <si>
+    <t>17.7±.1</t>
+  </si>
+  <si>
+    <t>13,790±260</t>
+  </si>
+  <si>
+    <t>17.5±.1</t>
+  </si>
+  <si>
+    <t>12,970±230</t>
+  </si>
+  <si>
+    <t>2,383-2,810</t>
+  </si>
+  <si>
+    <t>1,481±45</t>
+  </si>
+  <si>
+    <t>696±6</t>
+  </si>
+  <si>
+    <t>18.4±.1</t>
+  </si>
+  <si>
+    <t>13,470±260</t>
+  </si>
+  <si>
+    <t>18.2±.1</t>
+  </si>
+  <si>
+    <t>12,670±230</t>
+  </si>
+  <si>
+    <t>2,537-2,991</t>
+  </si>
+  <si>
+    <t>1,576±48</t>
+  </si>
+  <si>
+    <t>654±6</t>
+  </si>
+  <si>
+    <t>19.1±.2</t>
+  </si>
+  <si>
+    <t>13,140±260</t>
+  </si>
+  <si>
+    <t>12,360±230</t>
+  </si>
+  <si>
+    <t>2,701-3,184</t>
+  </si>
+  <si>
+    <t>1,678±51</t>
+  </si>
+  <si>
+    <t>615±5</t>
+  </si>
+  <si>
+    <t>19.7±.2</t>
+  </si>
+  <si>
+    <t>12,730±250</t>
+  </si>
+  <si>
+    <t>19.5±.2</t>
+  </si>
+  <si>
+    <t>11,990±230</t>
+  </si>
+  <si>
+    <t>2,874-3,389</t>
+  </si>
+  <si>
+    <t>1,786±55</t>
+  </si>
+  <si>
+    <t>577±5</t>
+  </si>
+  <si>
+    <t>20.4±.2</t>
+  </si>
+  <si>
+    <t>12,380±230</t>
+  </si>
+  <si>
+    <t>20.2±.2</t>
+  </si>
+  <si>
+    <t>11,660±220</t>
+  </si>
+  <si>
+    <t>3,060-3,608</t>
+  </si>
+  <si>
+    <t>1,901±58</t>
+  </si>
+  <si>
+    <t>542±5</t>
+  </si>
+  <si>
+    <t>11,970±220</t>
+  </si>
+  <si>
+    <t>20.8±.2</t>
+  </si>
+  <si>
+    <t>11,270±220</t>
+  </si>
+  <si>
+    <t>3,257-3,840</t>
+  </si>
+  <si>
+    <t>2,023±62</t>
+  </si>
+  <si>
+    <t>510±5</t>
+  </si>
+  <si>
+    <t>21.7±.2</t>
+  </si>
+  <si>
+    <t>11,630±220</t>
+  </si>
+  <si>
+    <t>21.4±.2</t>
+  </si>
+  <si>
+    <t>10,910±210</t>
+  </si>
+  <si>
+    <t>3,467-4,087</t>
+  </si>
+  <si>
+    <t>2,154±66</t>
+  </si>
+  <si>
+    <t>479±5</t>
+  </si>
+  <si>
+    <t>22.3±.2</t>
+  </si>
+  <si>
+    <t>11,220±220</t>
+  </si>
+  <si>
+    <t>10,590±210</t>
+  </si>
+  <si>
+    <t>3,690-4,351</t>
+  </si>
+  <si>
+    <t>2,293±70</t>
+  </si>
+  <si>
+    <t>450±5</t>
+  </si>
+  <si>
+    <t>23.0±.2</t>
+  </si>
+  <si>
+    <t>10,880±220</t>
+  </si>
+  <si>
+    <t>22.7±.2</t>
+  </si>
+  <si>
+    <t>10,220±210</t>
+  </si>
+  <si>
+    <t>3,928-4,632</t>
+  </si>
+  <si>
+    <t>2,441±75</t>
+  </si>
+  <si>
+    <t>422±5</t>
+  </si>
+  <si>
+    <t>23.5±.2</t>
+  </si>
+  <si>
+    <t>10,430±220</t>
+  </si>
+  <si>
+    <t>9,790±210</t>
+  </si>
+  <si>
+    <t>184 1</t>
+  </si>
+  <si>
+    <t>4,181-4,930</t>
+  </si>
+  <si>
+    <t>2,598±80</t>
+  </si>
+  <si>
+    <t>397±4</t>
+  </si>
+  <si>
+    <t>24.1±.2</t>
+  </si>
+  <si>
+    <t>10,050±220</t>
+  </si>
+  <si>
+    <t>23.8±.2</t>
+  </si>
+  <si>
+    <t>9,450±210</t>
+  </si>
+  <si>
+    <t>4,451-5,248</t>
+  </si>
+  <si>
+    <t>2,765±85</t>
+  </si>
+  <si>
+    <t>373±4</t>
+  </si>
+  <si>
+    <t>24.7±.2</t>
+  </si>
+  <si>
+    <t>9,680±220</t>
+  </si>
+  <si>
+    <t>24.4±.2</t>
+  </si>
+  <si>
+    <t>9,100±210</t>
+  </si>
+  <si>
+    <t>4,738-5,586</t>
+  </si>
+  <si>
+    <t>2,943±90</t>
+  </si>
+  <si>
+    <t>350±4</t>
+  </si>
+  <si>
+    <t>25.3±.3</t>
+  </si>
+  <si>
+    <t>9,310±220</t>
+  </si>
+  <si>
+    <t>25.0±.2</t>
+  </si>
+  <si>
+    <t>8,750±210</t>
+  </si>
+  <si>
+    <t>5,044-5,947</t>
+  </si>
+  <si>
+    <t>3,134±96</t>
+  </si>
+  <si>
+    <t>329±4</t>
+  </si>
+  <si>
+    <t>25.9±.3</t>
+  </si>
+  <si>
+    <t>8,960±210</t>
+  </si>
+  <si>
+    <t>25.6±.3</t>
+  </si>
+  <si>
+    <t>5,369-6,330</t>
+  </si>
+  <si>
+    <t>3,335±102</t>
+  </si>
+  <si>
+    <t>309±4</t>
+  </si>
+  <si>
+    <t>26.5±.3</t>
+  </si>
+  <si>
+    <t>8,610±210</t>
+  </si>
+  <si>
+    <t>26.1±.3</t>
+  </si>
+  <si>
+    <t>8,060±200</t>
+  </si>
+  <si>
+    <t>5,716-6,739</t>
+  </si>
+  <si>
+    <t>3,551±109</t>
+  </si>
+  <si>
+    <t>290±4</t>
+  </si>
+  <si>
+    <t>27.0±.3</t>
+  </si>
+  <si>
+    <t>8,240±210</t>
+  </si>
+  <si>
+    <t>26.7±.3</t>
+  </si>
+  <si>
+    <t>7,740±200</t>
+  </si>
+  <si>
+    <t>6,083-7,173</t>
+  </si>
+  <si>
+    <t>3,779±116</t>
+  </si>
+  <si>
+    <t>273±4</t>
+  </si>
+  <si>
+    <t>27.6±.3</t>
+  </si>
+  <si>
+    <t>7,920±200</t>
+  </si>
+  <si>
+    <t>27.2±.3</t>
+  </si>
+  <si>
+    <t>7,430±200</t>
+  </si>
+  <si>
+    <t>6,476-7,636</t>
+  </si>
+  <si>
+    <t>4,023±123</t>
+  </si>
+  <si>
+    <t>256±4</t>
+  </si>
+  <si>
+    <t>28.1±.3</t>
+  </si>
+  <si>
+    <t>7,560±200</t>
+  </si>
+  <si>
+    <t>27.7±.3</t>
+  </si>
+  <si>
+    <t>7,090±190</t>
+  </si>
+  <si>
+    <t>6,894-8,128</t>
+  </si>
+  <si>
+    <t>4,283±131</t>
+  </si>
+  <si>
+    <t>241±4</t>
+  </si>
+  <si>
+    <t>28.6±.3</t>
+  </si>
+  <si>
+    <t>7,240±200</t>
+  </si>
+  <si>
+    <t>28.2±.3</t>
+  </si>
+  <si>
+    <t>6,800±190</t>
+  </si>
+  <si>
+    <t>7,339-8,653</t>
+  </si>
+  <si>
+    <t>4,559±140</t>
+  </si>
+  <si>
+    <t>226±4</t>
+  </si>
+  <si>
+    <t>29.1±.3</t>
+  </si>
+  <si>
+    <t>6,930±190</t>
+  </si>
+  <si>
+    <t>28.7±.3</t>
+  </si>
+  <si>
+    <t>6,490±190</t>
+  </si>
+  <si>
+    <t>7,813-9,212</t>
+  </si>
+  <si>
+    <t>4,854±149</t>
+  </si>
+  <si>
+    <t>212±3</t>
+  </si>
+  <si>
+    <t>29.6±.3</t>
+  </si>
+  <si>
+    <t>6,600±160</t>
+  </si>
+  <si>
+    <t>29.2±.3</t>
+  </si>
+  <si>
+    <t>6,190±160</t>
+  </si>
+  <si>
+    <t>8,317-9,806</t>
+  </si>
+  <si>
+    <t>5,167±158</t>
+  </si>
+  <si>
+    <t>200±3</t>
+  </si>
+  <si>
+    <t>30.1±.3</t>
+  </si>
+  <si>
+    <t>6,320±160</t>
+  </si>
+  <si>
+    <t>5,940±150</t>
+  </si>
+  <si>
+    <t>304 4</t>
+  </si>
+  <si>
+    <t>8,853-10,438</t>
+  </si>
+  <si>
+    <t>5,500±169</t>
+  </si>
+  <si>
+    <t>187±3</t>
+  </si>
+  <si>
+    <t>30.6±.3</t>
+  </si>
+  <si>
+    <t>6,030±160</t>
+  </si>
+  <si>
+    <t>5,650±150</t>
+  </si>
+  <si>
+    <t>9,424-11,112</t>
+  </si>
+  <si>
+    <t>5,855±180</t>
+  </si>
+  <si>
+    <t>176±3</t>
+  </si>
+  <si>
+    <t>5,740±150</t>
+  </si>
+  <si>
+    <t>5,390±150</t>
+  </si>
+  <si>
+    <t>10,032-11,829</t>
+  </si>
+  <si>
+    <t>6,233±191</t>
+  </si>
+  <si>
+    <t>165±3</t>
+  </si>
+  <si>
+    <t>31.4±.3</t>
+  </si>
+  <si>
+    <t>5,460±150</t>
+  </si>
+  <si>
+    <t>30.9±.3</t>
+  </si>
+  <si>
+    <t>5,100±150</t>
+  </si>
+  <si>
+    <t>10,680-12,592</t>
+  </si>
+  <si>
+    <t>6,635±203</t>
+  </si>
+  <si>
+    <t>155±3</t>
+  </si>
+  <si>
+    <t>5,180±150</t>
+  </si>
+  <si>
+    <t>31.3±.3</t>
+  </si>
+  <si>
+    <t>4,850±150</t>
+  </si>
+  <si>
+    <t>10,814-12,750</t>
+  </si>
+  <si>
+    <t>6,718±206</t>
+  </si>
+  <si>
+    <t>153±3</t>
+  </si>
+  <si>
+    <t>31.9±.3</t>
+  </si>
+  <si>
+    <t>5,140±150</t>
+  </si>
+  <si>
+    <t>‡31.4±.3</t>
+  </si>
+  <si>
+    <t>4,800±150</t>
+  </si>
+  <si>
+    <t>knots</t>
+  </si>
+  <si>
+    <t>Gal/nmi</t>
+  </si>
+  <si>
+    <t>Cht Ttl</t>
+  </si>
+  <si>
+    <t>Xaxis</t>
+  </si>
+  <si>
+    <t>Speed (knots)</t>
+  </si>
+  <si>
+    <t>Yaxis</t>
+  </si>
+  <si>
+    <t>Lexington vs Yorktown Fuel Consumption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00;\-0.00;0.00;@"/>
+    <numFmt numFmtId="166" formatCode="0;\-0;0;@"/>
+    <numFmt numFmtId="170" formatCode="0.000;\-0.000;0.000;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Consolas"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -493,21 +1402,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="15"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="16">
+    <cellStyle name="Calculation" xfId="8" builtinId="22" hidden="1"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="13" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="6" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="9" builtinId="24" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="12" builtinId="10" hidden="1"/>
+    <cellStyle name="Output" xfId="7" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
+    <cellStyle name="Total" xfId="14" builtinId="25" hidden="1"/>
+    <cellStyle name="Warning Text" xfId="11" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -517,6 +1529,18 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00;\-0.00;0.00;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,10 +1555,1433 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>Sheet1!$L$1</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Lexington vs Yorktown Fuel Consumption</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0945563622728964E-2"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14891774891774892"/>
+          <c:y val="0.16849555263925342"/>
+          <c:w val="0.80792748917748913"/>
+          <c:h val="0.66358778069407987"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>USS Lexington Fuel Consumption</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00;\-0.00;0.00;@</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000;\-0.000;0.000;@</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>245.75835962145109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251.84935344827585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>263.19391891891894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>274.63713278495885</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>290.6917910447761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309.1484126984127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331.04277620396601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355.19179331306992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381.8892156862745</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>414.3904255319149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450.32023121387283</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>489.97106918238995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>534.81967963386728</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>581.38358208955219</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>636.82888283378747</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>697.6602985074627</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>773.89470198675497</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>849.87709090909095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>946.21943319838056</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1052.7756756756758</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1174.4532663316584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-190D-4CE2-897B-A4524843B674}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>USS Yorktown Fuel Consumption</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$9:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00;\-0.00;0.00;@</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$9:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000;\-0.000;0.000;@</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>121.09248322147651</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121.91067567567568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124.00536082474227</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.47134909596662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.33083980239944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.17878787878789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132.57002204261573</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.35468867216804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139.11164225134928</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142.40552486187846</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>145.97718446601942</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150.48190158465388</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>154.74082332761577</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>160.09565217391304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>165.37836846929423</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170.3756373937677</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>176.54383561643834</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>184.29805924412665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.92888888888888</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>198.27230769230769</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>206.20320000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>214.28479809976247</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>223.8558312655087</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>233.1108527131783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>242.83687752355317</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>254.4820874471086</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>265.33499999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>278.008936825886</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>291.48271405492733</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>303.75050505050507</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>319.3412389380531</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>334.74545454545455</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>353.78</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>372.01608247422678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-190D-4CE2-897B-A4524843B674}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="724151871"/>
+        <c:axId val="724156671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="724151871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Speed (knots)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724156671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="724156671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gal/nmi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="724151871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17031926406926406"/>
+          <c:y val="0.19103200641586465"/>
+          <c:w val="0.52245670995671001"/>
+          <c:h val="0.1237882764654418"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFBAA122-0299-B1B5-F4E9-1B68689790F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF81BE94-1B88-4A24-924B-1F66083D425C}" name="Table1" displayName="Table1" ref="B8:D29" totalsRowShown="0">
+  <autoFilter ref="B8:D29" xr:uid="{DF81BE94-1B88-4A24-924B-1F66083D425C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C4FE080F-EADA-4076-9E4D-F1EE09D01316}" name="Knots" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B1C2B2E2-30D0-4CD8-87C1-D6FE10AD3C2B}" name="Range (nmi)"/>
+    <tableColumn id="3" xr3:uid="{E58F5FF5-E759-4050-B8F3-A8DF50E0C900}" name="gal/nmi" dataDxfId="3">
+      <calculatedColumnFormula>_nVcv3/Table1[[#This Row],[Range (nmi)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{319B2CAD-EEC0-441F-BB30-EDD29E3330F8}" name="Table2" displayName="Table2" ref="G8:I42" totalsRowShown="0">
+  <autoFilter ref="G8:I42" xr:uid="{319B2CAD-EEC0-441F-BB30-EDD29E3330F8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8053B9FC-9EA2-4304-8290-3E75626639EB}" name="knots"/>
+    <tableColumn id="2" xr3:uid="{6C147894-3924-4081-88BA-D00FE7914E37}" name="Range (nmi)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3BE9A2C6-07F3-427A-BCAF-15B61928636B}" name="gal/nmi" dataDxfId="1">
+      <calculatedColumnFormula>_nVcv9/Table2[[#This Row],[Range (nmi)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Biegert-Standard">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Spring_Pastels">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -542,143 +2989,49 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="212121"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="DADADA"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FD7F6F"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="7EB0D5"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="B2E061"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="BD7EBE"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="FFB55A"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="FFEE65"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="BEB9DB"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="FDCCE5"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Biegert-Standard">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Consolas"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Consolas"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Glossy">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -687,132 +3040,154 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="62000"/>
+                <a:satMod val="180000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="65000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="32000"/>
+                <a:satMod val="250000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="23000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="15000"/>
+                <a:satMod val="180000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="45000"/>
+                <a:satMod val="170000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="70000">
+              <a:schemeClr val="phClr">
+                <a:tint val="99000"/>
+                <a:shade val="65000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="95500"/>
+                <a:shade val="100000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:tint val="95000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="55000" cap="flat" cmpd="thickThin" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:tint val="90000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="50800" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="50800" dist="38100" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="63500" dist="38100" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="45000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="glow" dir="t">
+              <a:rot lat="0" lon="0" rev="6360000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d contourW="1000" prstMaterial="flat">
+            <a:bevelT w="95250" h="101600"/>
+            <a:contourClr>
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="90000"/>
+                <a:lumMod val="110000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="88000"/>
+                <a:lumMod val="98000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch/>
+        </a:blipFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -820,7 +3195,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Organic" id="{28CDC826-8792-45C0-861B-85EB3ADEDA33}" vid="{7DAC20F1-423D-49E2-BD0B-50532748BAD0}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -828,20 +3203,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDBA1C1-95D5-40A9-8D91-249FF302BA19}">
-  <dimension ref="A1:AI45"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AJ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T4" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView topLeftCell="F30" workbookViewId="0">
+      <selection activeCell="V42" sqref="V42:W76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="18" max="18" width="3.21875" customWidth="1"/>
-    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" customWidth="1"/>
+    <col min="14" max="14" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.19921875" customWidth="1"/>
+    <col min="20" max="20" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.3984375" customWidth="1"/>
+    <col min="23" max="23" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -870,7 +3249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -883,15 +3262,15 @@
       <c r="N2" s="1">
         <v>2337162</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>2654</v>
       </c>
-      <c r="AA2">
-        <f>Z2*24/42</f>
+      <c r="AB2">
+        <f>AA2*24/42</f>
         <v>1516.5714285714287</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -901,20 +3280,24 @@
       <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="T3" cm="1">
+        <f t="array" aca="1" ref="T3" ca="1">_xlfn.LAMBDA(_xlpm.NewX,_xlpm.KnownX,_xlpm.KnownY,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))(S7,J6:J26,K6:K26)</f>
+        <v>9471.6666666666679</v>
+      </c>
+      <c r="AG3" t="s">
         <v>123</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>124</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>125</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-1</v>
       </c>
@@ -948,11 +3331,11 @@
       <c r="L4">
         <v>-11</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -986,20 +3369,20 @@
       <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>16</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>17</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>15</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100</v>
       </c>
@@ -1031,7 +3414,7 @@
         <v>9510</v>
       </c>
       <c r="L6" s="3">
-        <f>_nVolume/K6</f>
+        <f t="shared" ref="L6:L26" si="0">_nVolume/K6</f>
         <v>245.75835962145109</v>
       </c>
       <c r="N6">
@@ -1046,7 +3429,7 @@
         <v>9510</v>
       </c>
       <c r="Q6">
-        <f>O6*J6</f>
+        <f t="shared" ref="Q6:Q18" si="1">O6*J6</f>
         <v>9510.6818387339881</v>
       </c>
       <c r="U6" t="s">
@@ -1055,41 +3438,41 @@
       <c r="V6" t="s">
         <v>138</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>139</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>16</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>133</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>134</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>135</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>136</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>11</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
         <v>10950</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>41.6</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AJ6" s="1">
         <v>1552</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>773</v>
       </c>
@@ -1109,7 +3492,7 @@
         <v>9280</v>
       </c>
       <c r="L7" s="3">
-        <f>_nVolume/K7</f>
+        <f t="shared" si="0"/>
         <v>251.84935344827585</v>
       </c>
       <c r="N7">
@@ -1124,55 +3507,56 @@
         <v>9280</v>
       </c>
       <c r="Q7">
-        <f>O7*J7</f>
+        <f t="shared" si="1"/>
         <v>9271.3864462809906</v>
       </c>
       <c r="S7">
         <v>11</v>
       </c>
       <c r="U7" s="4">
-        <f>((J7-S7)*K6+(S7-J6)*K7)/(J7-J6)</f>
+        <f t="shared" ref="U7:U26" si="2">((J7-S7)*K6+(S7-J6)*K7)/(J7-J6)</f>
         <v>9471.6666666666661</v>
       </c>
       <c r="V7" s="4">
         <f ca="1">_xlfn.LET(_xlpm.NewX, S7,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
         <v>9471.6666666666679</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="4"/>
+      <c r="X7" s="4">
         <f ca="1">ROUND(V7,-1)</f>
         <v>9470</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>11</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1">
         <v>9470</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>246.8</v>
       </c>
-      <c r="AA7">
-        <f>Y7/(X7)</f>
+      <c r="AB7">
+        <f>Z7/(Y7)</f>
         <v>860.90909090909088</v>
       </c>
-      <c r="AC7">
-        <f t="shared" ref="AC7:AC26" si="0">_nVolume/Z7</f>
+      <c r="AD7">
+        <f t="shared" ref="AD7:AD26" si="3">_nVolume/AA7</f>
         <v>9469.8622366288491</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>12</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AH7" s="1">
         <v>10730</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>37.200000000000003</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AJ7" s="1">
         <v>1729</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>110</v>
       </c>
@@ -1204,7 +3588,7 @@
         <v>8880</v>
       </c>
       <c r="L8" s="3">
-        <f>_nVolume/K8</f>
+        <f t="shared" si="0"/>
         <v>263.19391891891894</v>
       </c>
       <c r="N8">
@@ -1219,55 +3603,56 @@
         <v>8880</v>
       </c>
       <c r="Q8">
-        <f>O8*J8</f>
+        <f t="shared" si="1"/>
         <v>8879.5888051044076</v>
       </c>
       <c r="S8">
         <v>13</v>
       </c>
       <c r="U8" s="4">
-        <f>((J8-S8)*K7+(S8-J7)*K8)/(J8-J7)</f>
+        <f t="shared" si="2"/>
         <v>8916.363636363636</v>
       </c>
       <c r="V8" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S8,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ref="V8:V26" ca="1" si="4">_xlfn.LET(_xlpm.NewX, S8,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
         <v>8916.363636363636</v>
       </c>
-      <c r="W8" s="4">
-        <f t="shared" ref="W8:W26" ca="1" si="1">ROUND(V8,-1)</f>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4">
+        <f t="shared" ref="X8:X26" ca="1" si="5">ROUND(V8,-1)</f>
         <v>8920</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>13</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1">
         <v>8920</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>262.2</v>
       </c>
-      <c r="AA8">
-        <f t="shared" ref="AA8:AA26" si="2">Y8/(X8*1.15)</f>
+      <c r="AB8">
+        <f t="shared" ref="AB8:AB26" si="6">Z8/(Y8*1.15)</f>
         <v>596.65551839464888</v>
       </c>
-      <c r="AC8">
-        <f t="shared" si="0"/>
+      <c r="AD8">
+        <f t="shared" si="3"/>
         <v>8913.6613272311224</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>13</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH8" s="1">
         <v>10310</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>33.1</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AJ8" s="1">
         <v>1948</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>595</v>
       </c>
@@ -1287,7 +3672,7 @@
         <v>8510</v>
       </c>
       <c r="L9" s="3">
-        <f>_nVolume/K9</f>
+        <f t="shared" si="0"/>
         <v>274.63713278495885</v>
       </c>
       <c r="N9">
@@ -1302,55 +3687,56 @@
         <v>8510</v>
       </c>
       <c r="Q9">
-        <f>O9*J9</f>
+        <f t="shared" si="1"/>
         <v>8504.177251908397</v>
       </c>
       <c r="S9">
         <v>14</v>
       </c>
       <c r="U9" s="4">
-        <f>((J9-S9)*K8+(S9-J8)*K9)/(J9-J8)</f>
+        <f t="shared" si="2"/>
         <v>8602.5</v>
       </c>
       <c r="V9" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S9,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>8602.5</v>
       </c>
-      <c r="W9" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>8600</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>14</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>8600</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>271.89999999999998</v>
       </c>
-      <c r="AA9">
-        <f t="shared" si="2"/>
+      <c r="AB9">
+        <f t="shared" si="6"/>
         <v>534.16149068322989</v>
       </c>
-      <c r="AC9">
-        <f t="shared" si="0"/>
+      <c r="AD9">
+        <f t="shared" si="3"/>
         <v>8595.667524825305</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>14</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AH9" s="1">
         <v>9940</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>29.6</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AJ9" s="1">
         <v>2177</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>120</v>
       </c>
@@ -1382,7 +3768,7 @@
         <v>8040</v>
       </c>
       <c r="L10" s="3">
-        <f>_nVolume/K10</f>
+        <f t="shared" si="0"/>
         <v>290.6917910447761</v>
       </c>
       <c r="N10">
@@ -1397,55 +3783,56 @@
         <v>8040</v>
       </c>
       <c r="Q10">
-        <f>O10*J10</f>
+        <f t="shared" si="1"/>
         <v>8033.9943750000002</v>
       </c>
       <c r="S10">
         <v>15</v>
       </c>
       <c r="U10" s="4">
-        <f>((J10-S10)*K9+(S10-J9)*K10)/(J10-J9)</f>
+        <f t="shared" si="2"/>
         <v>8210.9090909090919</v>
       </c>
       <c r="V10" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S10,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>8210.9090909090919</v>
       </c>
-      <c r="W10" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>8210</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>15</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Z10" s="1">
         <v>8210</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>285</v>
       </c>
-      <c r="AA10">
-        <f t="shared" si="2"/>
+      <c r="AB10">
+        <f t="shared" si="6"/>
         <v>475.94202898550725</v>
       </c>
-      <c r="AC10">
-        <f t="shared" si="0"/>
+      <c r="AD10">
+        <f t="shared" si="3"/>
         <v>8200.5684210526324</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>15</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AH10" s="1">
         <v>9490</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>26.5</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AJ10" s="1">
         <v>2446</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>458</v>
       </c>
@@ -1465,7 +3852,7 @@
         <v>7560</v>
       </c>
       <c r="L11" s="3">
-        <f>_nVolume/K11</f>
+        <f t="shared" si="0"/>
         <v>309.1484126984127</v>
       </c>
       <c r="N11">
@@ -1480,55 +3867,56 @@
         <v>7560</v>
       </c>
       <c r="Q11">
-        <f>O11*J11</f>
+        <f t="shared" si="1"/>
         <v>7551.0422948893674</v>
       </c>
       <c r="S11">
         <v>16</v>
       </c>
       <c r="U11" s="4">
-        <f>((J11-S11)*K10+(S11-J10)*K11)/(J11-J10)</f>
+        <f t="shared" si="2"/>
         <v>7778.1818181818171</v>
       </c>
       <c r="V11" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S11,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>7778.181818181818</v>
       </c>
-      <c r="W11" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>7780</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>16</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
         <v>7780</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>301</v>
       </c>
-      <c r="AA11">
-        <f t="shared" si="2"/>
+      <c r="AB11">
+        <f t="shared" si="6"/>
         <v>422.82608695652175</v>
       </c>
-      <c r="AC11">
-        <f t="shared" si="0"/>
+      <c r="AD11">
+        <f t="shared" si="3"/>
         <v>7764.6578073089704</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>16</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AH11" s="1">
         <v>8990</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>23.5</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AJ11" s="1">
         <v>2755</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>130</v>
       </c>
@@ -1560,7 +3948,7 @@
         <v>7060</v>
       </c>
       <c r="L12" s="3">
-        <f>_nVolume/K12</f>
+        <f t="shared" si="0"/>
         <v>331.04277620396601</v>
       </c>
       <c r="N12">
@@ -1575,55 +3963,56 @@
         <v>7060</v>
       </c>
       <c r="Q12">
-        <f>O12*J12</f>
+        <f t="shared" si="1"/>
         <v>7065.2784610099625</v>
       </c>
       <c r="S12">
         <v>17</v>
       </c>
       <c r="U12" s="4">
-        <f>((J12-S12)*K11+(S12-J11)*K12)/(J12-J11)</f>
+        <f t="shared" si="2"/>
         <v>7332.727272727273</v>
       </c>
       <c r="V12" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S12,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>7332.7272727272721</v>
       </c>
-      <c r="W12" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>7330</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>17</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1">
         <v>7330</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>319.2</v>
       </c>
-      <c r="AA12">
-        <f t="shared" si="2"/>
+      <c r="AB12">
+        <f t="shared" si="6"/>
         <v>374.93606138107424</v>
       </c>
-      <c r="AC12">
-        <f t="shared" si="0"/>
+      <c r="AD12">
+        <f t="shared" si="3"/>
         <v>7321.9360902255639</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>17</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AH12" s="1">
         <v>8470</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>20.8</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AJ12" s="1">
         <v>3104</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>352</v>
       </c>
@@ -1643,7 +4032,7 @@
         <v>6580</v>
       </c>
       <c r="L13" s="3">
-        <f>_nVolume/K13</f>
+        <f t="shared" si="0"/>
         <v>355.19179331306992</v>
       </c>
       <c r="N13">
@@ -1658,55 +4047,56 @@
         <v>6580</v>
       </c>
       <c r="Q13">
-        <f>O13*J13</f>
+        <f t="shared" si="1"/>
         <v>6586.0351717902349</v>
       </c>
       <c r="S13">
         <v>18</v>
       </c>
       <c r="U13" s="4">
-        <f>((J13-S13)*K12+(S13-J12)*K13)/(J13-J12)</f>
+        <f t="shared" si="2"/>
         <v>6885.454545454546</v>
       </c>
       <c r="V13" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S13,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>6885.4545454545441</v>
       </c>
-      <c r="W13" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>6890</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>18</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <v>6890</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>339.6</v>
       </c>
-      <c r="AA13">
-        <f t="shared" si="2"/>
+      <c r="AB13">
+        <f t="shared" si="6"/>
         <v>332.85024154589371</v>
       </c>
-      <c r="AC13">
-        <f t="shared" si="0"/>
+      <c r="AD13">
+        <f t="shared" si="3"/>
         <v>6882.1024734982329</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>18</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AH13" s="1">
         <v>7960</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>128</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AJ13" s="1">
         <v>3496</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>140</v>
       </c>
@@ -1738,7 +4128,7 @@
         <v>6120</v>
       </c>
       <c r="L14" s="3">
-        <f>_nVolume/K14</f>
+        <f t="shared" si="0"/>
         <v>381.8892156862745</v>
       </c>
       <c r="N14">
@@ -1753,55 +4143,56 @@
         <v>6120</v>
       </c>
       <c r="Q14">
-        <f>O14*J14</f>
+        <f t="shared" si="1"/>
         <v>6117.0928750826179</v>
       </c>
       <c r="S14">
         <v>19</v>
       </c>
       <c r="U14" s="4">
-        <f>((J14-S14)*K13+(S14-J13)*K14)/(J14-J13)</f>
+        <f t="shared" si="2"/>
         <v>6454.545454545454</v>
       </c>
       <c r="V14" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S14,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>6454.5454545454531</v>
       </c>
-      <c r="W14" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>6450</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>19</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1">
         <v>6450</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>362.3</v>
       </c>
-      <c r="AA14">
-        <f t="shared" si="2"/>
+      <c r="AB14">
+        <f t="shared" si="6"/>
         <v>295.19450800915337</v>
       </c>
-      <c r="AC14">
-        <f t="shared" si="0"/>
+      <c r="AD14">
+        <f t="shared" si="3"/>
         <v>6450.9025669334806</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>19</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AH14" s="1">
         <v>7460</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>16.399999999999999</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AJ14" s="1">
         <v>3937</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>271</v>
       </c>
@@ -1821,7 +4212,7 @@
         <v>5640</v>
       </c>
       <c r="L15" s="3">
-        <f>_nVolume/K15</f>
+        <f t="shared" si="0"/>
         <v>414.3904255319149</v>
       </c>
       <c r="N15">
@@ -1836,55 +4227,56 @@
         <v>5640</v>
       </c>
       <c r="Q15">
-        <f>O15*J15</f>
+        <f t="shared" si="1"/>
         <v>5637.5935985155984</v>
       </c>
       <c r="S15">
         <v>20</v>
       </c>
       <c r="U15" s="4">
-        <f>((J15-S15)*K14+(S15-J14)*K15)/(J15-J14)</f>
+        <f t="shared" si="2"/>
         <v>6024</v>
       </c>
       <c r="V15" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S15,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>6024</v>
       </c>
-      <c r="W15" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>6020</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>20</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1">
         <v>6020</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>388.6</v>
       </c>
-      <c r="AA15">
-        <f t="shared" si="2"/>
+      <c r="AB15">
+        <f t="shared" si="6"/>
         <v>261.73913043478262</v>
       </c>
-      <c r="AC15">
-        <f t="shared" si="0"/>
+      <c r="AD15">
+        <f t="shared" si="3"/>
         <v>6014.3129181677814</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>20</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AH15" s="1">
         <v>6960</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>129</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AJ15" s="1">
         <v>4444</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>150</v>
       </c>
@@ -1916,7 +4308,7 @@
         <v>5190</v>
       </c>
       <c r="L16" s="3">
-        <f>_nVolume/K16</f>
+        <f t="shared" si="0"/>
         <v>450.32023121387283</v>
       </c>
       <c r="M16" s="2"/>
@@ -1932,55 +4324,56 @@
         <v>5190</v>
       </c>
       <c r="Q16">
-        <f>O16*J16</f>
+        <f t="shared" si="1"/>
         <v>5183.1263072227875</v>
       </c>
       <c r="S16">
         <v>21</v>
       </c>
       <c r="U16" s="4">
-        <f>((J16-S16)*K15+(S16-J15)*K16)/(J16-J15)</f>
+        <f t="shared" si="2"/>
         <v>5550</v>
       </c>
       <c r="V16" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S16,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5550</v>
       </c>
-      <c r="W16" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>5550</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>21</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <v>5550</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>421.9</v>
       </c>
-      <c r="AA16">
-        <f t="shared" si="2"/>
+      <c r="AB16">
+        <f t="shared" si="6"/>
         <v>229.8136645962733</v>
       </c>
-      <c r="AC16">
-        <f t="shared" si="0"/>
+      <c r="AD16">
+        <f t="shared" si="3"/>
         <v>5539.6112822943833</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>21</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AH16" s="1">
         <v>6410</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>12.7</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AJ16" s="1">
         <v>5065</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>209</v>
       </c>
@@ -2000,7 +4393,7 @@
         <v>4770</v>
       </c>
       <c r="L17" s="3">
-        <f>_nVolume/K17</f>
+        <f t="shared" si="0"/>
         <v>489.97106918238995</v>
       </c>
       <c r="N17">
@@ -2015,55 +4408,56 @@
         <v>4770</v>
       </c>
       <c r="Q17">
-        <f>O17*J17</f>
+        <f t="shared" si="1"/>
         <v>4755.6710040160642</v>
       </c>
       <c r="S17">
         <v>22</v>
       </c>
       <c r="U17" s="4">
-        <f>((J17-S17)*K16+(S17-J16)*K17)/(J17-J16)</f>
+        <f t="shared" si="2"/>
         <v>5106</v>
       </c>
       <c r="V17" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S17,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5106</v>
       </c>
-      <c r="W17" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>5110</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>22</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
         <v>5110</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>459</v>
       </c>
-      <c r="AA17">
-        <f t="shared" si="2"/>
+      <c r="AB17">
+        <f t="shared" si="6"/>
         <v>201.97628458498025</v>
       </c>
-      <c r="AC17">
-        <f t="shared" si="0"/>
+      <c r="AD17">
+        <f t="shared" si="3"/>
         <v>5091.8562091503272</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>22</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AH17" s="1">
         <v>5910</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>11.2</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AJ17" s="1">
         <v>5774</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>160</v>
       </c>
@@ -2095,7 +4489,7 @@
         <v>4370</v>
       </c>
       <c r="L18" s="3">
-        <f>_nVolume/K18</f>
+        <f t="shared" si="0"/>
         <v>534.81967963386728</v>
       </c>
       <c r="M18" s="2"/>
@@ -2111,55 +4505,56 @@
         <v>4370</v>
       </c>
       <c r="Q18">
-        <f>O18*J18</f>
+        <f t="shared" si="1"/>
         <v>4373.1442730760191</v>
       </c>
       <c r="S18">
         <v>23</v>
       </c>
       <c r="U18" s="4">
-        <f>((J18-S18)*K17+(S18-J17)*K18)/(J18-J17)</f>
+        <f t="shared" si="2"/>
         <v>4697.2727272727279</v>
       </c>
       <c r="V18" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S18,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4697.2727272727279</v>
       </c>
-      <c r="W18" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>4700</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>23</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1">
         <v>4700</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>499.2</v>
       </c>
-      <c r="AA18">
-        <f t="shared" si="2"/>
+      <c r="AB18">
+        <f t="shared" si="6"/>
         <v>177.69376181474482</v>
       </c>
-      <c r="AC18">
-        <f t="shared" si="0"/>
+      <c r="AD18">
+        <f t="shared" si="3"/>
         <v>4681.8149038461543</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>23</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AH18" s="1">
         <v>5430</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AJ18" s="1">
         <v>6566</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="J19">
         <v>25</v>
       </c>
@@ -2167,7 +4562,7 @@
         <v>4020</v>
       </c>
       <c r="L19" s="3">
-        <f>_nVolume/K19</f>
+        <f t="shared" si="0"/>
         <v>581.38358208955219</v>
       </c>
       <c r="M19" s="2"/>
@@ -2175,48 +4570,49 @@
         <v>24</v>
       </c>
       <c r="U19" s="4">
-        <f>((J19-S19)*K18+(S19-J18)*K19)/(J19-J18)</f>
+        <f t="shared" si="2"/>
         <v>4338.1818181818171</v>
       </c>
       <c r="V19" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S19,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4338.181818181818</v>
       </c>
-      <c r="W19" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>4340</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>24</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1">
         <v>4340</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>538.79999999999995</v>
       </c>
-      <c r="AA19">
-        <f t="shared" si="2"/>
+      <c r="AB19">
+        <f t="shared" si="6"/>
         <v>157.24637681159422</v>
       </c>
-      <c r="AC19">
-        <f t="shared" si="0"/>
+      <c r="AD19">
+        <f t="shared" si="3"/>
         <v>4337.7171492204907</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>24</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AH19" s="1">
         <v>5020</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>87</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AJ19" s="1">
         <v>7392</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>170</v>
       </c>
@@ -2248,55 +4644,56 @@
         <v>3670</v>
       </c>
       <c r="L20" s="3">
-        <f>_nVolume/K20</f>
+        <f t="shared" si="0"/>
         <v>636.82888283378747</v>
       </c>
       <c r="S20">
         <v>25</v>
       </c>
       <c r="U20" s="4">
-        <f>((J20-S20)*K19+(S20-J19)*K20)/(J20-J19)</f>
+        <f t="shared" si="2"/>
         <v>4020</v>
       </c>
       <c r="V20" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S20,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4020</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20" s="4"/>
+      <c r="X20" s="4">
         <f ca="1">ROUND(V20,-1)</f>
         <v>4020</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>25</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1">
         <v>4020</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>682.4</v>
       </c>
-      <c r="AA20">
-        <f t="shared" si="2"/>
+      <c r="AB20">
+        <f t="shared" si="6"/>
         <v>139.82608695652175</v>
       </c>
-      <c r="AC20">
-        <f t="shared" si="0"/>
+      <c r="AD20">
+        <f t="shared" si="3"/>
         <v>3424.9150058616647</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>25</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AH20" s="1">
         <v>4650</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>7.7</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AJ20" s="1">
         <v>8320</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>77</v>
       </c>
@@ -2316,55 +4713,56 @@
         <v>3350</v>
       </c>
       <c r="L21" s="3">
-        <f>_nVolume/K21</f>
+        <f t="shared" si="0"/>
         <v>697.6602985074627</v>
       </c>
       <c r="S21">
         <v>26</v>
       </c>
       <c r="U21" s="4">
-        <f>((J21-S21)*K20+(S21-J20)*K21)/(J21-J20)</f>
+        <f t="shared" si="2"/>
         <v>3670</v>
       </c>
       <c r="V21" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S21,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>3670</v>
       </c>
-      <c r="W21" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>3670</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>26</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Z21" s="1">
         <v>3670</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>638.29999999999995</v>
       </c>
-      <c r="AA21">
-        <f t="shared" si="2"/>
+      <c r="AB21">
+        <f t="shared" si="6"/>
         <v>122.74247491638796</v>
       </c>
-      <c r="AC21">
-        <f t="shared" si="0"/>
+      <c r="AD21">
+        <f t="shared" si="3"/>
         <v>3661.5415948613509</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>26</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AH21" s="1">
         <v>4240</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>6.8</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AJ21" s="1">
         <v>9484</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>180</v>
       </c>
@@ -2396,7 +4794,7 @@
         <v>3020</v>
       </c>
       <c r="L22" s="3">
-        <f>_nVolume/K22</f>
+        <f t="shared" si="0"/>
         <v>773.89470198675497</v>
       </c>
       <c r="O22" s="1"/>
@@ -2404,48 +4802,49 @@
         <v>27</v>
       </c>
       <c r="U22" s="4">
-        <f>((J22-S22)*K21+(S22-J21)*K22)/(J22-J21)</f>
+        <f t="shared" si="2"/>
         <v>3350</v>
       </c>
       <c r="V22" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S22,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>3350</v>
       </c>
-      <c r="W22" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>3350</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>27</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <v>3350</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>700.7</v>
       </c>
-      <c r="AA22">
-        <f t="shared" si="2"/>
+      <c r="AB22">
+        <f t="shared" si="6"/>
         <v>107.89049919484702</v>
       </c>
-      <c r="AC22">
-        <f t="shared" si="0"/>
+      <c r="AD22">
+        <f t="shared" si="3"/>
         <v>3335.4673897531038</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>27</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AH22" s="1">
         <v>3870</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>6</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AJ22" s="1">
         <v>10811</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>87</v>
       </c>
@@ -2465,7 +4864,7 @@
         <v>2750</v>
       </c>
       <c r="L23" s="3">
-        <f>_nVolume/K23</f>
+        <f t="shared" si="0"/>
         <v>849.87709090909095</v>
       </c>
       <c r="O23" s="1"/>
@@ -2473,48 +4872,49 @@
         <v>28</v>
       </c>
       <c r="U23" s="4">
-        <f>((J23-S23)*K22+(S23-J22)*K23)/(J23-J22)</f>
+        <f t="shared" si="2"/>
         <v>3020</v>
       </c>
       <c r="V23" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S23,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>3020</v>
       </c>
-      <c r="W23" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>3020</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>28</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1">
         <v>3020</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>770.2</v>
       </c>
-      <c r="AA23">
-        <f t="shared" si="2"/>
+      <c r="AB23">
+        <f t="shared" si="6"/>
         <v>93.788819875776412</v>
       </c>
-      <c r="AC23">
-        <f t="shared" si="0"/>
+      <c r="AD23">
+        <f t="shared" si="3"/>
         <v>3034.4871461957932</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>28</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AH23" s="1">
         <v>3490</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>5.2</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AJ23" s="1">
         <v>12324</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>190</v>
       </c>
@@ -2546,7 +4946,7 @@
         <v>2470</v>
       </c>
       <c r="L24" s="3">
-        <f>_nVolume/K24</f>
+        <f t="shared" si="0"/>
         <v>946.21943319838056</v>
       </c>
       <c r="O24" s="1"/>
@@ -2554,48 +4954,49 @@
         <v>29</v>
       </c>
       <c r="U24" s="4">
-        <f>((J24-S24)*K23+(S24-J23)*K24)/(J24-J23)</f>
+        <f t="shared" si="2"/>
         <v>2714.9999999999991</v>
       </c>
       <c r="V24" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S24,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2715</v>
       </c>
-      <c r="W24" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>2720</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>29</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <v>2720</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>862.3</v>
       </c>
-      <c r="AA24">
-        <f t="shared" si="2"/>
+      <c r="AB24">
+        <f t="shared" si="6"/>
         <v>81.559220389805105</v>
       </c>
-      <c r="AC24">
-        <f t="shared" si="0"/>
+      <c r="AD24">
+        <f t="shared" si="3"/>
         <v>2710.3815377478836</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>29</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AH24" s="1">
         <v>3140</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>130</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AJ24" s="1">
         <v>14294</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="J25">
         <v>30.4</v>
       </c>
@@ -2603,7 +5004,7 @@
         <v>2220</v>
       </c>
       <c r="L25" s="3">
-        <f>_nVolume/K25</f>
+        <f t="shared" si="0"/>
         <v>1052.7756756756758</v>
       </c>
       <c r="O25" s="1"/>
@@ -2611,48 +5012,49 @@
         <v>30</v>
       </c>
       <c r="U25" s="4">
-        <f>((J25-S25)*K24+(S25-J24)*K25)/(J25-J24)</f>
+        <f t="shared" si="2"/>
         <v>2362.8571428571427</v>
       </c>
       <c r="V25" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S25,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2362.8571428571431</v>
       </c>
-      <c r="W25" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>2360</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>30</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <v>2360</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>989.5</v>
       </c>
-      <c r="AA25">
-        <f t="shared" si="2"/>
+      <c r="AB25">
+        <f t="shared" si="6"/>
         <v>68.405797101449281</v>
       </c>
-      <c r="AC25">
-        <f t="shared" si="0"/>
+      <c r="AD25">
+        <f t="shared" si="3"/>
         <v>2361.9626073774634</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>30</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AH25" s="1">
         <v>2730</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>131</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AJ25" s="1">
         <v>16974</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="J26">
         <v>31.1</v>
       </c>
@@ -2660,7 +5062,7 @@
         <v>1990</v>
       </c>
       <c r="L26" s="3">
-        <f>_nVolume/K26</f>
+        <f t="shared" si="0"/>
         <v>1174.4532663316584</v>
       </c>
       <c r="O26" s="1"/>
@@ -2668,51 +5070,52 @@
         <v>31</v>
       </c>
       <c r="U26" s="4">
-        <f>((J26-S26)*K25+(S26-J25)*K26)/(J26-J25)</f>
+        <f t="shared" si="2"/>
         <v>2022.8571428571431</v>
       </c>
       <c r="V26" s="4">
-        <f ca="1">_xlfn.LET(_xlpm.NewX, S26,_xlpm.KnownX,$J$6:$J$26,_xlpm.KnownY, $K$6:$K$26,FORECAST(_xlpm.NewX,OFFSET(_xlpm.KnownY,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2), OFFSET(_xlpm.KnownX,MATCH(_xlpm.NewX,_xlpm.KnownX,1)-1,0,2)))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2022.8571428571431</v>
       </c>
-      <c r="W26" s="4">
-        <f t="shared" ca="1" si="1"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4">
+        <f t="shared" ca="1" si="5"/>
         <v>2020</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>31</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Z26" s="1">
         <v>2020</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="AA26" s="2">
         <v>1153.7</v>
       </c>
-      <c r="AA26">
-        <f t="shared" si="2"/>
+      <c r="AB26">
+        <f t="shared" si="6"/>
         <v>56.661991584852736</v>
       </c>
-      <c r="AC26">
-        <f t="shared" si="0"/>
+      <c r="AD26">
+        <f t="shared" si="3"/>
         <v>2025.797000953454</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>31</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AH26" s="1">
         <v>2330</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>132</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AJ26" s="1">
         <v>20443</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>200</v>
       </c>
@@ -2748,10 +5151,10 @@
       </c>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>210</v>
       </c>
@@ -2787,10 +5190,10 @@
       </c>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>220</v>
       </c>
@@ -2826,7 +5229,7 @@
       </c>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>118</v>
       </c>
@@ -2850,7 +5253,7 @@
       </c>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>230</v>
       </c>
@@ -2865,7 +5268,7 @@
       </c>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>240</v>
       </c>
@@ -2879,7 +5282,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>250</v>
       </c>
@@ -2893,7 +5296,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>260</v>
       </c>
@@ -2906,8 +5309,14 @@
       <c r="D37" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="U37" t="s">
+        <v>141</v>
+      </c>
+      <c r="V37" s="1">
+        <v>1804278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>270</v>
       </c>
@@ -2920,8 +5329,46 @@
       <c r="D38" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>280</v>
       </c>
@@ -2934,8 +5381,52 @@
       <c r="D40" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>147</v>
+      </c>
+      <c r="L40" t="s">
+        <v>148</v>
+      </c>
+      <c r="N40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>-1</v>
+      </c>
+      <c r="G41">
+        <v>-2</v>
+      </c>
+      <c r="H41">
+        <v>-3</v>
+      </c>
+      <c r="I41">
+        <v>-4</v>
+      </c>
+      <c r="J41">
+        <v>-5</v>
+      </c>
+      <c r="K41">
+        <v>-6</v>
+      </c>
+      <c r="L41">
+        <v>-7</v>
+      </c>
+      <c r="M41">
+        <v>-8</v>
+      </c>
+      <c r="N41">
+        <v>-9</v>
+      </c>
+      <c r="O41">
+        <v>-10</v>
+      </c>
+      <c r="P41">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>290</v>
       </c>
@@ -2948,8 +5439,107 @@
       <c r="D42" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" t="s">
+        <v>18</v>
+      </c>
+      <c r="S42" t="s">
+        <v>383</v>
+      </c>
+      <c r="T42" t="s">
+        <v>142</v>
+      </c>
+      <c r="V42" t="s">
+        <v>383</v>
+      </c>
+      <c r="W42" t="s">
+        <v>142</v>
+      </c>
+      <c r="X42" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>90</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1478</v>
+      </c>
+      <c r="H43" t="s">
+        <v>149</v>
+      </c>
+      <c r="I43" t="s">
+        <v>150</v>
+      </c>
+      <c r="J43" t="s">
+        <v>151</v>
+      </c>
+      <c r="K43">
+        <v>50.9</v>
+      </c>
+      <c r="L43" t="s">
+        <v>152</v>
+      </c>
+      <c r="M43" t="s">
+        <v>153</v>
+      </c>
+      <c r="N43" t="s">
+        <v>154</v>
+      </c>
+      <c r="O43" t="s">
+        <v>155</v>
+      </c>
+      <c r="P43">
+        <v>121.1</v>
+      </c>
+      <c r="S43">
+        <v>12.2</v>
+      </c>
+      <c r="T43">
+        <v>14900</v>
+      </c>
+      <c r="V43">
+        <v>12.2</v>
+      </c>
+      <c r="W43">
+        <v>14900</v>
+      </c>
+      <c r="X43">
+        <f>_nVcv9/W43</f>
+        <v>121.09248322147651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>300</v>
       </c>
@@ -2962,8 +5552,57 @@
       <c r="D44" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>95</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1573</v>
+      </c>
+      <c r="H44" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" t="s">
+        <v>157</v>
+      </c>
+      <c r="J44" t="s">
+        <v>158</v>
+      </c>
+      <c r="K44">
+        <v>47.8</v>
+      </c>
+      <c r="L44" t="s">
+        <v>159</v>
+      </c>
+      <c r="M44" t="s">
+        <v>160</v>
+      </c>
+      <c r="N44" t="s">
+        <v>161</v>
+      </c>
+      <c r="O44" t="s">
+        <v>162</v>
+      </c>
+      <c r="P44">
+        <v>121.9</v>
+      </c>
+      <c r="S44">
+        <v>12.9</v>
+      </c>
+      <c r="T44">
+        <v>14800</v>
+      </c>
+      <c r="V44">
+        <v>12.9</v>
+      </c>
+      <c r="W44">
+        <v>14800</v>
+      </c>
+      <c r="X44">
+        <f>_nVcv9/W44</f>
+        <v>121.91067567567568</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>301</v>
       </c>
@@ -2976,12 +5615,2708 @@
       <c r="D45" t="s">
         <v>117</v>
       </c>
+      <c r="N45">
+        <v>13</v>
+      </c>
+      <c r="O45" s="1">
+        <v>14760</v>
+      </c>
+      <c r="P45">
+        <v>122.2</v>
+      </c>
+      <c r="S45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V45">
+        <v>13.5</v>
+      </c>
+      <c r="W45">
+        <v>14550</v>
+      </c>
+      <c r="X45">
+        <f>_nVcv9/W45</f>
+        <v>124.00536082474227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1674</v>
+      </c>
+      <c r="H46" t="s">
+        <v>163</v>
+      </c>
+      <c r="I46" t="s">
+        <v>164</v>
+      </c>
+      <c r="J46" t="s">
+        <v>165</v>
+      </c>
+      <c r="K46">
+        <v>44.9</v>
+      </c>
+      <c r="L46" t="s">
+        <v>166</v>
+      </c>
+      <c r="M46" t="s">
+        <v>167</v>
+      </c>
+      <c r="N46" t="s">
+        <v>168</v>
+      </c>
+      <c r="O46" t="s">
+        <v>169</v>
+      </c>
+      <c r="P46">
+        <v>124</v>
+      </c>
+      <c r="S46">
+        <v>13.5</v>
+      </c>
+      <c r="T46">
+        <v>14550</v>
+      </c>
+      <c r="V46">
+        <v>14.2</v>
+      </c>
+      <c r="W46">
+        <v>14380</v>
+      </c>
+      <c r="X46">
+        <f>_nVcv9/W46</f>
+        <v>125.47134909596662</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <v>14</v>
+      </c>
+      <c r="O47" s="1">
+        <v>14430</v>
+      </c>
+      <c r="P47">
+        <v>125.1</v>
+      </c>
+      <c r="S47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V47">
+        <v>14.9</v>
+      </c>
+      <c r="W47">
+        <v>14170</v>
+      </c>
+      <c r="X47">
+        <f>_nVcv9/W47</f>
+        <v>127.33083980239944</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>105</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1782</v>
+      </c>
+      <c r="H48" t="s">
+        <v>170</v>
+      </c>
+      <c r="I48" t="s">
+        <v>171</v>
+      </c>
+      <c r="J48" t="s">
+        <v>172</v>
+      </c>
+      <c r="K48">
+        <v>42.2</v>
+      </c>
+      <c r="L48" t="s">
+        <v>33</v>
+      </c>
+      <c r="M48" t="s">
+        <v>167</v>
+      </c>
+      <c r="N48" t="s">
+        <v>173</v>
+      </c>
+      <c r="O48" t="s">
+        <v>174</v>
+      </c>
+      <c r="P48">
+        <v>125.5</v>
+      </c>
+      <c r="S48">
+        <v>14.2</v>
+      </c>
+      <c r="T48">
+        <v>14380</v>
+      </c>
+      <c r="V48">
+        <v>15.5</v>
+      </c>
+      <c r="W48">
+        <v>13860</v>
+      </c>
+      <c r="X48">
+        <f>_nVcv9/W48</f>
+        <v>130.17878787878789</v>
+      </c>
+    </row>
+    <row r="49" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>110</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1897</v>
+      </c>
+      <c r="H49" t="s">
+        <v>175</v>
+      </c>
+      <c r="I49" t="s">
+        <v>176</v>
+      </c>
+      <c r="J49" t="s">
+        <v>177</v>
+      </c>
+      <c r="K49">
+        <v>39.6</v>
+      </c>
+      <c r="L49" t="s">
+        <v>178</v>
+      </c>
+      <c r="M49" t="s">
+        <v>179</v>
+      </c>
+      <c r="N49" t="s">
+        <v>180</v>
+      </c>
+      <c r="O49" t="s">
+        <v>181</v>
+      </c>
+      <c r="P49">
+        <v>127.3</v>
+      </c>
+      <c r="S49">
+        <v>14.9</v>
+      </c>
+      <c r="T49">
+        <v>14170</v>
+      </c>
+      <c r="V49">
+        <v>16.2</v>
+      </c>
+      <c r="W49">
+        <v>13610</v>
+      </c>
+      <c r="X49">
+        <f>_nVcv9/W49</f>
+        <v>132.57002204261573</v>
+      </c>
+    </row>
+    <row r="50" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <v>15</v>
+      </c>
+      <c r="O50" s="1">
+        <v>14120</v>
+      </c>
+      <c r="P50">
+        <v>127.8</v>
+      </c>
+      <c r="S50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V50">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="W50">
+        <v>13330</v>
+      </c>
+      <c r="X50">
+        <f>_nVcv9/W50</f>
+        <v>135.35468867216804</v>
+      </c>
+    </row>
+    <row r="51" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>115</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H51" t="s">
+        <v>182</v>
+      </c>
+      <c r="I51" t="s">
+        <v>183</v>
+      </c>
+      <c r="J51" t="s">
+        <v>184</v>
+      </c>
+      <c r="K51">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="L51" t="s">
+        <v>185</v>
+      </c>
+      <c r="M51" t="s">
+        <v>186</v>
+      </c>
+      <c r="N51" t="s">
+        <v>37</v>
+      </c>
+      <c r="O51" t="s">
+        <v>187</v>
+      </c>
+      <c r="P51">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="S51">
+        <v>15.5</v>
+      </c>
+      <c r="T51">
+        <v>13860</v>
+      </c>
+      <c r="V51">
+        <v>17.5</v>
+      </c>
+      <c r="W51">
+        <v>12970</v>
+      </c>
+      <c r="X51">
+        <f>_nVcv9/W51</f>
+        <v>139.11164225134928</v>
+      </c>
+    </row>
+    <row r="52" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <v>16</v>
+      </c>
+      <c r="O52" s="1">
+        <v>13680</v>
+      </c>
+      <c r="P52">
+        <v>132</v>
+      </c>
+      <c r="S52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V52">
+        <v>18.2</v>
+      </c>
+      <c r="W52">
+        <v>12670</v>
+      </c>
+      <c r="X52">
+        <f>_nVcv9/W52</f>
+        <v>142.40552486187846</v>
+      </c>
+    </row>
+    <row r="53" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>120</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2149</v>
+      </c>
+      <c r="H53" t="s">
+        <v>188</v>
+      </c>
+      <c r="I53" t="s">
+        <v>189</v>
+      </c>
+      <c r="J53" t="s">
+        <v>190</v>
+      </c>
+      <c r="K53">
+        <v>35</v>
+      </c>
+      <c r="L53" t="s">
+        <v>191</v>
+      </c>
+      <c r="M53" t="s">
+        <v>192</v>
+      </c>
+      <c r="N53" t="s">
+        <v>193</v>
+      </c>
+      <c r="O53" t="s">
+        <v>194</v>
+      </c>
+      <c r="P53">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="S53">
+        <v>16.2</v>
+      </c>
+      <c r="T53">
+        <v>13610</v>
+      </c>
+      <c r="V53">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="W53">
+        <v>12360</v>
+      </c>
+      <c r="X53">
+        <f>_nVcv9/W53</f>
+        <v>145.97718446601942</v>
+      </c>
+    </row>
+    <row r="54" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>125</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2287</v>
+      </c>
+      <c r="H54" t="s">
+        <v>195</v>
+      </c>
+      <c r="I54" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" t="s">
+        <v>197</v>
+      </c>
+      <c r="K54">
+        <v>32.9</v>
+      </c>
+      <c r="L54" t="s">
+        <v>198</v>
+      </c>
+      <c r="M54" t="s">
+        <v>199</v>
+      </c>
+      <c r="N54" t="s">
+        <v>200</v>
+      </c>
+      <c r="O54" t="s">
+        <v>201</v>
+      </c>
+      <c r="P54">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="S54">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="T54">
+        <v>13330</v>
+      </c>
+      <c r="V54">
+        <v>19.5</v>
+      </c>
+      <c r="W54">
+        <v>11990</v>
+      </c>
+      <c r="X54">
+        <f>_nVcv9/W54</f>
+        <v>150.48190158465388</v>
+      </c>
+    </row>
+    <row r="55" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="N55">
+        <v>17</v>
+      </c>
+      <c r="O55" s="1">
+        <v>13270</v>
+      </c>
+      <c r="P55">
+        <v>135.9</v>
+      </c>
+      <c r="S55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V55">
+        <v>20.2</v>
+      </c>
+      <c r="W55">
+        <v>11660</v>
+      </c>
+      <c r="X55">
+        <f>_nVcv9/W55</f>
+        <v>154.74082332761577</v>
+      </c>
+    </row>
+    <row r="56" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>130</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2435</v>
+      </c>
+      <c r="H56" t="s">
+        <v>202</v>
+      </c>
+      <c r="I56" t="s">
+        <v>203</v>
+      </c>
+      <c r="J56" t="s">
+        <v>204</v>
+      </c>
+      <c r="K56">
+        <v>30.9</v>
+      </c>
+      <c r="L56" t="s">
+        <v>205</v>
+      </c>
+      <c r="M56" t="s">
+        <v>206</v>
+      </c>
+      <c r="N56" t="s">
+        <v>207</v>
+      </c>
+      <c r="O56" t="s">
+        <v>208</v>
+      </c>
+      <c r="P56">
+        <v>139.1</v>
+      </c>
+      <c r="S56">
+        <v>17.5</v>
+      </c>
+      <c r="T56">
+        <v>12970</v>
+      </c>
+      <c r="V56">
+        <v>20.8</v>
+      </c>
+      <c r="W56">
+        <v>11270</v>
+      </c>
+      <c r="X56">
+        <f>_nVcv9/W56</f>
+        <v>160.09565217391304</v>
+      </c>
+    </row>
+    <row r="57" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="N57">
+        <v>18</v>
+      </c>
+      <c r="O57" s="1">
+        <v>12760</v>
+      </c>
+      <c r="P57">
+        <v>141.5</v>
+      </c>
+      <c r="S57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V57">
+        <v>21.4</v>
+      </c>
+      <c r="W57">
+        <v>10910</v>
+      </c>
+      <c r="X57">
+        <f>_nVcv9/W57</f>
+        <v>165.37836846929423</v>
+      </c>
+    </row>
+    <row r="58" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>135</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2591</v>
+      </c>
+      <c r="H58" t="s">
+        <v>209</v>
+      </c>
+      <c r="I58" t="s">
+        <v>210</v>
+      </c>
+      <c r="J58" t="s">
+        <v>211</v>
+      </c>
+      <c r="K58">
+        <v>29</v>
+      </c>
+      <c r="L58" t="s">
+        <v>212</v>
+      </c>
+      <c r="M58" t="s">
+        <v>213</v>
+      </c>
+      <c r="N58" t="s">
+        <v>214</v>
+      </c>
+      <c r="O58" t="s">
+        <v>215</v>
+      </c>
+      <c r="P58">
+        <v>142.4</v>
+      </c>
+      <c r="S58">
+        <v>18.2</v>
+      </c>
+      <c r="T58">
+        <v>12670</v>
+      </c>
+      <c r="V58">
+        <v>22.1</v>
+      </c>
+      <c r="W58">
+        <v>10590</v>
+      </c>
+      <c r="X58">
+        <f>_nVcv9/W58</f>
+        <v>170.3756373937677</v>
+      </c>
+    </row>
+    <row r="59" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>140</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2758</v>
+      </c>
+      <c r="H59" t="s">
+        <v>216</v>
+      </c>
+      <c r="I59" t="s">
+        <v>217</v>
+      </c>
+      <c r="J59" t="s">
+        <v>218</v>
+      </c>
+      <c r="K59">
+        <v>27.2</v>
+      </c>
+      <c r="L59" t="s">
+        <v>219</v>
+      </c>
+      <c r="M59" t="s">
+        <v>220</v>
+      </c>
+      <c r="N59" t="s">
+        <v>49</v>
+      </c>
+      <c r="O59" t="s">
+        <v>221</v>
+      </c>
+      <c r="P59">
+        <v>145.9</v>
+      </c>
+      <c r="S59">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="T59">
+        <v>12360</v>
+      </c>
+      <c r="V59">
+        <v>22.7</v>
+      </c>
+      <c r="W59">
+        <v>10220</v>
+      </c>
+      <c r="X59">
+        <f>_nVcv9/W59</f>
+        <v>176.54383561643834</v>
+      </c>
+    </row>
+    <row r="60" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="N60">
+        <v>19</v>
+      </c>
+      <c r="O60" s="1">
+        <v>12300</v>
+      </c>
+      <c r="P60">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="S60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V60">
+        <v>23.2</v>
+      </c>
+      <c r="W60">
+        <v>9790</v>
+      </c>
+      <c r="X60">
+        <f>_nVcv9/W60</f>
+        <v>184.29805924412665</v>
+      </c>
+    </row>
+    <row r="61" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>145</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2936</v>
+      </c>
+      <c r="H61" t="s">
+        <v>222</v>
+      </c>
+      <c r="I61" t="s">
+        <v>223</v>
+      </c>
+      <c r="J61" t="s">
+        <v>224</v>
+      </c>
+      <c r="K61">
+        <v>25.6</v>
+      </c>
+      <c r="L61" t="s">
+        <v>225</v>
+      </c>
+      <c r="M61" t="s">
+        <v>226</v>
+      </c>
+      <c r="N61" t="s">
+        <v>227</v>
+      </c>
+      <c r="O61" t="s">
+        <v>228</v>
+      </c>
+      <c r="P61">
+        <v>150.6</v>
+      </c>
+      <c r="S61">
+        <v>19.5</v>
+      </c>
+      <c r="T61">
+        <v>11990</v>
+      </c>
+      <c r="V61">
+        <v>23.8</v>
+      </c>
+      <c r="W61">
+        <v>9450</v>
+      </c>
+      <c r="X61">
+        <f>_nVcv9/W61</f>
+        <v>190.92888888888888</v>
+      </c>
+    </row>
+    <row r="62" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="N62">
+        <v>20</v>
+      </c>
+      <c r="O62" s="1">
+        <v>11750</v>
+      </c>
+      <c r="P62">
+        <v>153.5</v>
+      </c>
+      <c r="S62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V62">
+        <v>24.4</v>
+      </c>
+      <c r="W62">
+        <v>9100</v>
+      </c>
+      <c r="X62">
+        <f>_nVcv9/W62</f>
+        <v>198.27230769230769</v>
+      </c>
+    </row>
+    <row r="63" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>150</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3125</v>
+      </c>
+      <c r="H63" t="s">
+        <v>229</v>
+      </c>
+      <c r="I63" t="s">
+        <v>230</v>
+      </c>
+      <c r="J63" t="s">
+        <v>231</v>
+      </c>
+      <c r="K63">
+        <v>24</v>
+      </c>
+      <c r="L63" t="s">
+        <v>232</v>
+      </c>
+      <c r="M63" t="s">
+        <v>233</v>
+      </c>
+      <c r="N63" t="s">
+        <v>234</v>
+      </c>
+      <c r="O63" t="s">
+        <v>235</v>
+      </c>
+      <c r="P63">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="S63">
+        <v>20.2</v>
+      </c>
+      <c r="T63">
+        <v>11660</v>
+      </c>
+      <c r="V63">
+        <v>25</v>
+      </c>
+      <c r="W63">
+        <v>8750</v>
+      </c>
+      <c r="X63">
+        <f>_nVcv9/W63</f>
+        <v>206.20320000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>155</v>
+      </c>
+      <c r="G64" s="1">
+        <v>3327</v>
+      </c>
+      <c r="H64" t="s">
+        <v>236</v>
+      </c>
+      <c r="I64" t="s">
+        <v>237</v>
+      </c>
+      <c r="J64" t="s">
+        <v>238</v>
+      </c>
+      <c r="K64">
+        <v>22.6</v>
+      </c>
+      <c r="L64" t="s">
+        <v>57</v>
+      </c>
+      <c r="M64" t="s">
+        <v>239</v>
+      </c>
+      <c r="N64" t="s">
+        <v>240</v>
+      </c>
+      <c r="O64" t="s">
+        <v>241</v>
+      </c>
+      <c r="P64">
+        <v>160</v>
+      </c>
+      <c r="S64">
+        <v>20.8</v>
+      </c>
+      <c r="T64">
+        <v>11270</v>
+      </c>
+      <c r="V64">
+        <v>25.6</v>
+      </c>
+      <c r="W64">
+        <v>8420</v>
+      </c>
+      <c r="X64">
+        <f>_nVcv9/W64</f>
+        <v>214.28479809976247</v>
+      </c>
+    </row>
+    <row r="65" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="N65">
+        <v>21</v>
+      </c>
+      <c r="O65" s="1">
+        <v>11150</v>
+      </c>
+      <c r="P65">
+        <v>161.80000000000001</v>
+      </c>
+      <c r="S65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V65">
+        <v>26.1</v>
+      </c>
+      <c r="W65">
+        <v>8060</v>
+      </c>
+      <c r="X65">
+        <f>_nVcv9/W65</f>
+        <v>223.8558312655087</v>
+      </c>
+    </row>
+    <row r="66" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>160</v>
+      </c>
+      <c r="G66" s="1">
+        <v>3541</v>
+      </c>
+      <c r="H66" t="s">
+        <v>242</v>
+      </c>
+      <c r="I66" t="s">
+        <v>243</v>
+      </c>
+      <c r="J66" t="s">
+        <v>244</v>
+      </c>
+      <c r="K66">
+        <v>21.2</v>
+      </c>
+      <c r="L66" t="s">
+        <v>245</v>
+      </c>
+      <c r="M66" t="s">
+        <v>246</v>
+      </c>
+      <c r="N66" t="s">
+        <v>247</v>
+      </c>
+      <c r="O66" t="s">
+        <v>248</v>
+      </c>
+      <c r="P66">
+        <v>165.5</v>
+      </c>
+      <c r="S66">
+        <v>21.4</v>
+      </c>
+      <c r="T66">
+        <v>10910</v>
+      </c>
+      <c r="V66">
+        <v>26.7</v>
+      </c>
+      <c r="W66">
+        <v>7740</v>
+      </c>
+      <c r="X66">
+        <f>_nVcv9/W66</f>
+        <v>233.1108527131783</v>
+      </c>
+    </row>
+    <row r="67" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="N67">
+        <v>22</v>
+      </c>
+      <c r="O67" s="1">
+        <v>10640</v>
+      </c>
+      <c r="P67">
+        <v>169.8</v>
+      </c>
+      <c r="S67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V67">
+        <v>27.2</v>
+      </c>
+      <c r="W67">
+        <v>7430</v>
+      </c>
+      <c r="X67">
+        <f>_nVcv9/W67</f>
+        <v>242.83687752355317</v>
+      </c>
+    </row>
+    <row r="68" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>165</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3769</v>
+      </c>
+      <c r="H68" t="s">
+        <v>249</v>
+      </c>
+      <c r="I68" t="s">
+        <v>250</v>
+      </c>
+      <c r="J68" t="s">
+        <v>251</v>
+      </c>
+      <c r="K68">
+        <v>20</v>
+      </c>
+      <c r="L68" t="s">
+        <v>252</v>
+      </c>
+      <c r="M68" t="s">
+        <v>253</v>
+      </c>
+      <c r="N68" t="s">
+        <v>61</v>
+      </c>
+      <c r="O68" t="s">
+        <v>254</v>
+      </c>
+      <c r="P68">
+        <v>170.5</v>
+      </c>
+      <c r="S68">
+        <v>22.1</v>
+      </c>
+      <c r="T68">
+        <v>10590</v>
+      </c>
+      <c r="V68">
+        <v>27.7</v>
+      </c>
+      <c r="W68">
+        <v>7090</v>
+      </c>
+      <c r="X68">
+        <f>_nVcv9/W68</f>
+        <v>254.4820874471086</v>
+      </c>
+    </row>
+    <row r="69" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>170</v>
+      </c>
+      <c r="G69" s="1">
+        <v>4012</v>
+      </c>
+      <c r="H69" t="s">
+        <v>255</v>
+      </c>
+      <c r="I69" t="s">
+        <v>256</v>
+      </c>
+      <c r="J69" t="s">
+        <v>257</v>
+      </c>
+      <c r="K69">
+        <v>18.8</v>
+      </c>
+      <c r="L69" t="s">
+        <v>258</v>
+      </c>
+      <c r="M69" t="s">
+        <v>259</v>
+      </c>
+      <c r="N69" t="s">
+        <v>260</v>
+      </c>
+      <c r="O69" t="s">
+        <v>261</v>
+      </c>
+      <c r="P69">
+        <v>176.7</v>
+      </c>
+      <c r="S69">
+        <v>22.7</v>
+      </c>
+      <c r="T69">
+        <v>10220</v>
+      </c>
+      <c r="V69">
+        <v>28.2</v>
+      </c>
+      <c r="W69">
+        <v>6800</v>
+      </c>
+      <c r="X69">
+        <f>_nVcv9/W69</f>
+        <v>265.33499999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>175</v>
+      </c>
+      <c r="G70" s="1">
+        <v>4271</v>
+      </c>
+      <c r="N70">
+        <v>23</v>
+      </c>
+      <c r="O70" s="1">
+        <v>9960</v>
+      </c>
+      <c r="P70">
+        <v>181.1</v>
+      </c>
+      <c r="S70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V70">
+        <v>28.7</v>
+      </c>
+      <c r="W70">
+        <v>6490</v>
+      </c>
+      <c r="X70">
+        <f>_nVcv9/W70</f>
+        <v>278.008936825886</v>
+      </c>
+    </row>
+    <row r="71" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>262</v>
+      </c>
+      <c r="I71" t="s">
+        <v>263</v>
+      </c>
+      <c r="J71" t="s">
+        <v>264</v>
+      </c>
+      <c r="K71">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L71" t="s">
+        <v>265</v>
+      </c>
+      <c r="M71" t="s">
+        <v>266</v>
+      </c>
+      <c r="N71" t="s">
+        <v>65</v>
+      </c>
+      <c r="O71" t="s">
+        <v>267</v>
+      </c>
+      <c r="P71" t="s">
+        <v>268</v>
+      </c>
+      <c r="S71">
+        <v>23.2</v>
+      </c>
+      <c r="T71">
+        <v>9790</v>
+      </c>
+      <c r="V71">
+        <v>29.2</v>
+      </c>
+      <c r="W71">
+        <v>6190</v>
+      </c>
+      <c r="X71">
+        <f>_nVcv9/W71</f>
+        <v>291.48271405492733</v>
+      </c>
+    </row>
+    <row r="72" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>180</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4546</v>
+      </c>
+      <c r="H72" t="s">
+        <v>269</v>
+      </c>
+      <c r="I72" t="s">
+        <v>270</v>
+      </c>
+      <c r="J72" t="s">
+        <v>271</v>
+      </c>
+      <c r="K72">
+        <v>16.5</v>
+      </c>
+      <c r="L72" t="s">
+        <v>272</v>
+      </c>
+      <c r="M72" t="s">
+        <v>273</v>
+      </c>
+      <c r="N72" t="s">
+        <v>274</v>
+      </c>
+      <c r="O72" t="s">
+        <v>275</v>
+      </c>
+      <c r="P72">
+        <v>191</v>
+      </c>
+      <c r="S72">
+        <v>23.8</v>
+      </c>
+      <c r="T72">
+        <v>9450</v>
+      </c>
+      <c r="V72">
+        <v>29.7</v>
+      </c>
+      <c r="W72">
+        <v>5940</v>
+      </c>
+      <c r="X72">
+        <f>_nVcv9/W72</f>
+        <v>303.75050505050507</v>
+      </c>
+    </row>
+    <row r="73" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="N73">
+        <v>24</v>
+      </c>
+      <c r="O73" s="1">
+        <v>9330</v>
+      </c>
+      <c r="P73">
+        <v>193.4</v>
+      </c>
+      <c r="S73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V73">
+        <v>30.2</v>
+      </c>
+      <c r="W73">
+        <v>5650</v>
+      </c>
+      <c r="X73">
+        <f>_nVcv9/W73</f>
+        <v>319.3412389380531</v>
+      </c>
+    </row>
+    <row r="74" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>185</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4839</v>
+      </c>
+      <c r="H74" t="s">
+        <v>276</v>
+      </c>
+      <c r="I74" t="s">
+        <v>277</v>
+      </c>
+      <c r="J74" t="s">
+        <v>278</v>
+      </c>
+      <c r="K74">
+        <v>15.5</v>
+      </c>
+      <c r="L74" t="s">
+        <v>279</v>
+      </c>
+      <c r="M74" t="s">
+        <v>280</v>
+      </c>
+      <c r="N74" t="s">
+        <v>281</v>
+      </c>
+      <c r="O74" t="s">
+        <v>282</v>
+      </c>
+      <c r="P74">
+        <v>198.3</v>
+      </c>
+      <c r="S74">
+        <v>24.4</v>
+      </c>
+      <c r="T74">
+        <v>9100</v>
+      </c>
+      <c r="V74">
+        <v>30.6</v>
+      </c>
+      <c r="W74">
+        <v>5390</v>
+      </c>
+      <c r="X74">
+        <f>_nVcv9/W74</f>
+        <v>334.74545454545455</v>
+      </c>
+    </row>
+    <row r="75" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>190</v>
+      </c>
+      <c r="G75" s="1">
+        <v>5151</v>
+      </c>
+      <c r="H75" t="s">
+        <v>283</v>
+      </c>
+      <c r="I75" t="s">
+        <v>284</v>
+      </c>
+      <c r="J75" t="s">
+        <v>285</v>
+      </c>
+      <c r="K75">
+        <v>14.6</v>
+      </c>
+      <c r="L75" t="s">
+        <v>286</v>
+      </c>
+      <c r="M75" t="s">
+        <v>287</v>
+      </c>
+      <c r="N75" t="s">
+        <v>288</v>
+      </c>
+      <c r="O75" t="s">
+        <v>289</v>
+      </c>
+      <c r="P75">
+        <v>206</v>
+      </c>
+      <c r="S75">
+        <v>25</v>
+      </c>
+      <c r="T75">
+        <v>8750</v>
+      </c>
+      <c r="V75">
+        <v>30.9</v>
+      </c>
+      <c r="W75">
+        <v>5100</v>
+      </c>
+      <c r="X75">
+        <f>_nVcv9/W75</f>
+        <v>353.78</v>
+      </c>
+    </row>
+    <row r="76" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>195</v>
+      </c>
+      <c r="G76" s="1">
+        <v>5484</v>
+      </c>
+      <c r="H76" t="s">
+        <v>290</v>
+      </c>
+      <c r="I76" t="s">
+        <v>291</v>
+      </c>
+      <c r="J76" t="s">
+        <v>292</v>
+      </c>
+      <c r="K76">
+        <v>13.7</v>
+      </c>
+      <c r="L76" t="s">
+        <v>293</v>
+      </c>
+      <c r="M76" t="s">
+        <v>294</v>
+      </c>
+      <c r="N76" t="s">
+        <v>295</v>
+      </c>
+      <c r="O76" t="s">
+        <v>38</v>
+      </c>
+      <c r="P76">
+        <v>214.2</v>
+      </c>
+      <c r="S76">
+        <v>25.6</v>
+      </c>
+      <c r="T76">
+        <v>8420</v>
+      </c>
+      <c r="V76">
+        <v>31.3</v>
+      </c>
+      <c r="W76">
+        <v>4850</v>
+      </c>
+      <c r="X76">
+        <f>_nVcv9/W76</f>
+        <v>372.01608247422678</v>
+      </c>
+    </row>
+    <row r="77" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="N77">
+        <v>26</v>
+      </c>
+      <c r="O77" s="1">
+        <v>8130</v>
+      </c>
+      <c r="P77">
+        <v>221.7</v>
+      </c>
+      <c r="S77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T77" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>200</v>
+      </c>
+      <c r="G78" s="1">
+        <v>5837</v>
+      </c>
+      <c r="H78" t="s">
+        <v>296</v>
+      </c>
+      <c r="I78" t="s">
+        <v>297</v>
+      </c>
+      <c r="J78" t="s">
+        <v>298</v>
+      </c>
+      <c r="K78">
+        <v>12.9</v>
+      </c>
+      <c r="L78" t="s">
+        <v>299</v>
+      </c>
+      <c r="M78" t="s">
+        <v>300</v>
+      </c>
+      <c r="N78" t="s">
+        <v>301</v>
+      </c>
+      <c r="O78" t="s">
+        <v>302</v>
+      </c>
+      <c r="P78">
+        <v>223.6</v>
+      </c>
+      <c r="S78">
+        <v>26.1</v>
+      </c>
+      <c r="T78">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="79" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>205</v>
+      </c>
+      <c r="G79" s="1">
+        <v>6214</v>
+      </c>
+      <c r="H79" t="s">
+        <v>303</v>
+      </c>
+      <c r="I79" t="s">
+        <v>304</v>
+      </c>
+      <c r="J79" t="s">
+        <v>305</v>
+      </c>
+      <c r="K79">
+        <v>12.1</v>
+      </c>
+      <c r="L79" t="s">
+        <v>306</v>
+      </c>
+      <c r="M79" t="s">
+        <v>307</v>
+      </c>
+      <c r="N79" t="s">
+        <v>308</v>
+      </c>
+      <c r="O79" t="s">
+        <v>309</v>
+      </c>
+      <c r="P79">
+        <v>232.7</v>
+      </c>
+      <c r="S79">
+        <v>26.7</v>
+      </c>
+      <c r="T79">
+        <v>7740</v>
+      </c>
+    </row>
+    <row r="80" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="N80">
+        <v>27</v>
+      </c>
+      <c r="O80" s="1">
+        <v>7550</v>
+      </c>
+      <c r="P80">
+        <v>239</v>
+      </c>
+      <c r="S80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T80" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>210</v>
+      </c>
+      <c r="G81" s="1">
+        <v>6614</v>
+      </c>
+      <c r="H81" t="s">
+        <v>310</v>
+      </c>
+      <c r="I81" t="s">
+        <v>311</v>
+      </c>
+      <c r="J81" t="s">
+        <v>312</v>
+      </c>
+      <c r="K81">
+        <v>11.4</v>
+      </c>
+      <c r="L81" t="s">
+        <v>313</v>
+      </c>
+      <c r="M81" t="s">
+        <v>314</v>
+      </c>
+      <c r="N81" t="s">
+        <v>315</v>
+      </c>
+      <c r="O81" t="s">
+        <v>316</v>
+      </c>
+      <c r="P81">
+        <v>243.2</v>
+      </c>
+      <c r="S81">
+        <v>27.2</v>
+      </c>
+      <c r="T81">
+        <v>7430</v>
+      </c>
+    </row>
+    <row r="82" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>215</v>
+      </c>
+      <c r="G82" s="1">
+        <v>7041</v>
+      </c>
+      <c r="H82" t="s">
+        <v>317</v>
+      </c>
+      <c r="I82" t="s">
+        <v>318</v>
+      </c>
+      <c r="J82" t="s">
+        <v>319</v>
+      </c>
+      <c r="K82">
+        <v>10.7</v>
+      </c>
+      <c r="L82" t="s">
+        <v>320</v>
+      </c>
+      <c r="M82" t="s">
+        <v>321</v>
+      </c>
+      <c r="N82" t="s">
+        <v>322</v>
+      </c>
+      <c r="O82" t="s">
+        <v>323</v>
+      </c>
+      <c r="P82">
+        <v>254.2</v>
+      </c>
+      <c r="S82">
+        <v>27.7</v>
+      </c>
+      <c r="T82">
+        <v>7090</v>
+      </c>
+    </row>
+    <row r="83" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="N83">
+        <v>28</v>
+      </c>
+      <c r="O83" s="1">
+        <v>6920</v>
+      </c>
+      <c r="P83">
+        <v>261.2</v>
+      </c>
+      <c r="S83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T83" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>220</v>
+      </c>
+      <c r="G84" s="1">
+        <v>7495</v>
+      </c>
+      <c r="H84" t="s">
+        <v>324</v>
+      </c>
+      <c r="I84" t="s">
+        <v>325</v>
+      </c>
+      <c r="J84" t="s">
+        <v>326</v>
+      </c>
+      <c r="K84">
+        <v>10</v>
+      </c>
+      <c r="L84" t="s">
+        <v>327</v>
+      </c>
+      <c r="M84" t="s">
+        <v>328</v>
+      </c>
+      <c r="N84" t="s">
+        <v>329</v>
+      </c>
+      <c r="O84" t="s">
+        <v>330</v>
+      </c>
+      <c r="P84">
+        <v>265.8</v>
+      </c>
+      <c r="S84">
+        <v>28.2</v>
+      </c>
+      <c r="T84">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="85" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>225</v>
+      </c>
+      <c r="G85" s="1">
+        <v>7979</v>
+      </c>
+      <c r="H85" t="s">
+        <v>331</v>
+      </c>
+      <c r="I85" t="s">
+        <v>332</v>
+      </c>
+      <c r="J85" t="s">
+        <v>333</v>
+      </c>
+      <c r="K85">
+        <v>9.4</v>
+      </c>
+      <c r="L85" t="s">
+        <v>334</v>
+      </c>
+      <c r="M85" t="s">
+        <v>335</v>
+      </c>
+      <c r="N85" t="s">
+        <v>336</v>
+      </c>
+      <c r="O85" t="s">
+        <v>337</v>
+      </c>
+      <c r="P85">
+        <v>278</v>
+      </c>
+      <c r="S85">
+        <v>28.7</v>
+      </c>
+      <c r="T85">
+        <v>6490</v>
+      </c>
+    </row>
+    <row r="86" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="N86">
+        <v>29</v>
+      </c>
+      <c r="O86" s="1">
+        <v>6310</v>
+      </c>
+      <c r="P86">
+        <v>285.7</v>
+      </c>
+      <c r="S86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T86" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>230</v>
+      </c>
+      <c r="G87" s="1">
+        <v>8494</v>
+      </c>
+      <c r="H87" t="s">
+        <v>338</v>
+      </c>
+      <c r="I87" t="s">
+        <v>339</v>
+      </c>
+      <c r="J87" t="s">
+        <v>340</v>
+      </c>
+      <c r="K87">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L87" t="s">
+        <v>341</v>
+      </c>
+      <c r="M87" t="s">
+        <v>342</v>
+      </c>
+      <c r="N87" t="s">
+        <v>343</v>
+      </c>
+      <c r="O87" t="s">
+        <v>344</v>
+      </c>
+      <c r="P87">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="S87">
+        <v>29.2</v>
+      </c>
+      <c r="T87">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="88" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>235</v>
+      </c>
+      <c r="G88" s="1">
+        <v>9042</v>
+      </c>
+      <c r="H88" t="s">
+        <v>345</v>
+      </c>
+      <c r="I88" t="s">
+        <v>346</v>
+      </c>
+      <c r="J88" t="s">
+        <v>347</v>
+      </c>
+      <c r="K88">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L88" t="s">
+        <v>348</v>
+      </c>
+      <c r="M88" t="s">
+        <v>349</v>
+      </c>
+      <c r="N88" t="s">
+        <v>100</v>
+      </c>
+      <c r="O88" t="s">
+        <v>350</v>
+      </c>
+      <c r="P88" t="s">
+        <v>351</v>
+      </c>
+      <c r="S88">
+        <v>29.7</v>
+      </c>
+      <c r="T88">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="89" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="N89">
+        <v>30</v>
+      </c>
+      <c r="O89" s="1">
+        <v>5770</v>
+      </c>
+      <c r="P89">
+        <v>313</v>
+      </c>
+      <c r="S89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T89" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>240</v>
+      </c>
+      <c r="G90" s="1">
+        <v>9625</v>
+      </c>
+      <c r="H90" t="s">
+        <v>352</v>
+      </c>
+      <c r="I90" t="s">
+        <v>353</v>
+      </c>
+      <c r="J90" t="s">
+        <v>354</v>
+      </c>
+      <c r="K90">
+        <v>7.8</v>
+      </c>
+      <c r="L90" t="s">
+        <v>355</v>
+      </c>
+      <c r="M90" t="s">
+        <v>356</v>
+      </c>
+      <c r="N90" t="s">
+        <v>98</v>
+      </c>
+      <c r="O90" t="s">
+        <v>357</v>
+      </c>
+      <c r="P90">
+        <v>318.7</v>
+      </c>
+      <c r="S90">
+        <v>30.2</v>
+      </c>
+      <c r="T90">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="91" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>245</v>
+      </c>
+      <c r="G91" s="1">
+        <v>10246</v>
+      </c>
+      <c r="H91" t="s">
+        <v>358</v>
+      </c>
+      <c r="I91" t="s">
+        <v>359</v>
+      </c>
+      <c r="J91" t="s">
+        <v>360</v>
+      </c>
+      <c r="K91">
+        <v>7.3</v>
+      </c>
+      <c r="L91" t="s">
+        <v>105</v>
+      </c>
+      <c r="M91" t="s">
+        <v>361</v>
+      </c>
+      <c r="N91" t="s">
+        <v>355</v>
+      </c>
+      <c r="O91" t="s">
+        <v>362</v>
+      </c>
+      <c r="P91">
+        <v>334.8</v>
+      </c>
+      <c r="S91">
+        <v>30.6</v>
+      </c>
+      <c r="T91">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="92" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>250</v>
+      </c>
+      <c r="G92" s="1">
+        <v>10907</v>
+      </c>
+      <c r="H92" t="s">
+        <v>363</v>
+      </c>
+      <c r="I92" t="s">
+        <v>364</v>
+      </c>
+      <c r="J92" t="s">
+        <v>365</v>
+      </c>
+      <c r="K92">
+        <v>6.9</v>
+      </c>
+      <c r="L92" t="s">
+        <v>366</v>
+      </c>
+      <c r="M92" t="s">
+        <v>367</v>
+      </c>
+      <c r="N92" t="s">
+        <v>368</v>
+      </c>
+      <c r="O92" t="s">
+        <v>369</v>
+      </c>
+      <c r="P92">
+        <v>353</v>
+      </c>
+      <c r="S92">
+        <v>30.9</v>
+      </c>
+      <c r="T92">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="93" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="N93">
+        <v>31</v>
+      </c>
+      <c r="O93" s="1">
+        <v>5040</v>
+      </c>
+      <c r="P93">
+        <v>357.5</v>
+      </c>
+      <c r="S93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T93" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>255</v>
+      </c>
+      <c r="G94" s="1">
+        <v>11611</v>
+      </c>
+      <c r="H94" t="s">
+        <v>370</v>
+      </c>
+      <c r="I94" t="s">
+        <v>371</v>
+      </c>
+      <c r="J94" t="s">
+        <v>372</v>
+      </c>
+      <c r="K94">
+        <v>6.5</v>
+      </c>
+      <c r="L94" t="s">
+        <v>119</v>
+      </c>
+      <c r="M94" t="s">
+        <v>373</v>
+      </c>
+      <c r="N94" t="s">
+        <v>374</v>
+      </c>
+      <c r="O94" t="s">
+        <v>375</v>
+      </c>
+      <c r="P94">
+        <v>371</v>
+      </c>
+      <c r="S94">
+        <v>31.3</v>
+      </c>
+      <c r="T94">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="95" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>256</v>
+      </c>
+      <c r="G95" s="1">
+        <v>11757</v>
+      </c>
+      <c r="H95" t="s">
+        <v>376</v>
+      </c>
+      <c r="I95" t="s">
+        <v>377</v>
+      </c>
+      <c r="J95" t="s">
+        <v>378</v>
+      </c>
+      <c r="K95">
+        <v>6.4</v>
+      </c>
+      <c r="L95" t="s">
+        <v>379</v>
+      </c>
+      <c r="M95" t="s">
+        <v>380</v>
+      </c>
+      <c r="N95" t="s">
+        <v>381</v>
+      </c>
+      <c r="O95" t="s">
+        <v>382</v>
+      </c>
+      <c r="P95">
+        <v>374.4</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="W7:W26 Y7:Y26">
+  <autoFilter ref="S42:T94" xr:uid="{1DDBA1C1-95D5-40A9-8D91-249FF302BA19}"/>
+  <conditionalFormatting sqref="X7:X26 Z7:Z26">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C2E8CE-6812-4E67-A635-10E72726EACC}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B1:L42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>388</v>
+      </c>
+      <c r="L3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6">
+        <v>2337162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6">
+        <v>1804278</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="9"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" t="s">
+        <v>383</v>
+      </c>
+      <c r="H8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="C9">
+        <v>9510</v>
+      </c>
+      <c r="D9" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>245.75835962145109</v>
+      </c>
+      <c r="G9" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>14900</v>
+      </c>
+      <c r="I9" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>121.09248322147651</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>9280</v>
+      </c>
+      <c r="D10" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>251.84935344827585</v>
+      </c>
+      <c r="G10" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="H10" s="7">
+        <v>14800</v>
+      </c>
+      <c r="I10" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>121.91067567567568</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="C11">
+        <v>8880</v>
+      </c>
+      <c r="D11" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>263.19391891891894</v>
+      </c>
+      <c r="G11" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>14550</v>
+      </c>
+      <c r="I11" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>124.00536082474227</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="C12">
+        <v>8510</v>
+      </c>
+      <c r="D12" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>274.63713278495885</v>
+      </c>
+      <c r="G12" s="5">
+        <v>14.2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>14380</v>
+      </c>
+      <c r="I12" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>125.47134909596662</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="C13">
+        <v>8040</v>
+      </c>
+      <c r="D13" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>290.6917910447761</v>
+      </c>
+      <c r="G13" s="5">
+        <v>14.9</v>
+      </c>
+      <c r="H13" s="7">
+        <v>14170</v>
+      </c>
+      <c r="I13" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>127.33083980239944</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>16.5</v>
+      </c>
+      <c r="C14">
+        <v>7560</v>
+      </c>
+      <c r="D14" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>309.1484126984127</v>
+      </c>
+      <c r="G14" s="5">
+        <v>15.5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>13860</v>
+      </c>
+      <c r="I14" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>130.17878787878789</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C15">
+        <v>7060</v>
+      </c>
+      <c r="D15" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>331.04277620396601</v>
+      </c>
+      <c r="G15" s="5">
+        <v>16.2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>13610</v>
+      </c>
+      <c r="I15" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>132.57002204261573</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>18.7</v>
+      </c>
+      <c r="C16">
+        <v>6580</v>
+      </c>
+      <c r="D16" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>355.19179331306992</v>
+      </c>
+      <c r="G16" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H16" s="7">
+        <v>13330</v>
+      </c>
+      <c r="I16" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>135.35468867216804</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>19.8</v>
+      </c>
+      <c r="C17">
+        <v>6120</v>
+      </c>
+      <c r="D17" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>381.8892156862745</v>
+      </c>
+      <c r="G17" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>12970</v>
+      </c>
+      <c r="I17" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>139.11164225134928</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>20.8</v>
+      </c>
+      <c r="C18">
+        <v>5640</v>
+      </c>
+      <c r="D18" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>414.3904255319149</v>
+      </c>
+      <c r="G18" s="5">
+        <v>18.2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>12670</v>
+      </c>
+      <c r="I18" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>142.40552486187846</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>21.8</v>
+      </c>
+      <c r="C19">
+        <v>5190</v>
+      </c>
+      <c r="D19" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>450.32023121387283</v>
+      </c>
+      <c r="G19" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H19" s="7">
+        <v>12360</v>
+      </c>
+      <c r="I19" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>145.97718446601942</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>22.8</v>
+      </c>
+      <c r="C20">
+        <v>4770</v>
+      </c>
+      <c r="D20" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>489.97106918238995</v>
+      </c>
+      <c r="G20" s="5">
+        <v>19.5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>11990</v>
+      </c>
+      <c r="I20" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>150.48190158465388</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="C21">
+        <v>4370</v>
+      </c>
+      <c r="D21" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>534.81967963386728</v>
+      </c>
+      <c r="G21" s="5">
+        <v>20.2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>11660</v>
+      </c>
+      <c r="I21" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>154.74082332761577</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>4020</v>
+      </c>
+      <c r="D22" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>581.38358208955219</v>
+      </c>
+      <c r="G22" s="5">
+        <v>20.8</v>
+      </c>
+      <c r="H22" s="7">
+        <v>11270</v>
+      </c>
+      <c r="I22" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>160.09565217391304</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>3670</v>
+      </c>
+      <c r="D23" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>636.82888283378747</v>
+      </c>
+      <c r="G23" s="5">
+        <v>21.4</v>
+      </c>
+      <c r="H23" s="7">
+        <v>10910</v>
+      </c>
+      <c r="I23" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>165.37836846929423</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>3350</v>
+      </c>
+      <c r="D24" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>697.6602985074627</v>
+      </c>
+      <c r="G24" s="5">
+        <v>22.1</v>
+      </c>
+      <c r="H24" s="7">
+        <v>10590</v>
+      </c>
+      <c r="I24" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>170.3756373937677</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>3020</v>
+      </c>
+      <c r="D25" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>773.89470198675497</v>
+      </c>
+      <c r="G25" s="5">
+        <v>22.7</v>
+      </c>
+      <c r="H25" s="7">
+        <v>10220</v>
+      </c>
+      <c r="I25" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>176.54383561643834</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>28.9</v>
+      </c>
+      <c r="C26">
+        <v>2750</v>
+      </c>
+      <c r="D26" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>849.87709090909095</v>
+      </c>
+      <c r="G26" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="H26" s="7">
+        <v>9790</v>
+      </c>
+      <c r="I26" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>184.29805924412665</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>29.7</v>
+      </c>
+      <c r="C27">
+        <v>2470</v>
+      </c>
+      <c r="D27" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>946.21943319838056</v>
+      </c>
+      <c r="G27" s="5">
+        <v>23.8</v>
+      </c>
+      <c r="H27" s="7">
+        <v>9450</v>
+      </c>
+      <c r="I27" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>190.92888888888888</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>30.4</v>
+      </c>
+      <c r="C28">
+        <v>2220</v>
+      </c>
+      <c r="D28" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>1052.7756756756758</v>
+      </c>
+      <c r="G28" s="5">
+        <v>24.4</v>
+      </c>
+      <c r="H28" s="7">
+        <v>9100</v>
+      </c>
+      <c r="I28" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>198.27230769230769</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>31.1</v>
+      </c>
+      <c r="C29">
+        <v>1990</v>
+      </c>
+      <c r="D29" s="8">
+        <f>_nVcv3/Table1[[#This Row],[Range (nmi)]]</f>
+        <v>1174.4532663316584</v>
+      </c>
+      <c r="G29" s="5">
+        <v>25</v>
+      </c>
+      <c r="H29" s="7">
+        <v>8750</v>
+      </c>
+      <c r="I29" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>206.20320000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G30" s="5">
+        <v>25.6</v>
+      </c>
+      <c r="H30" s="7">
+        <v>8420</v>
+      </c>
+      <c r="I30" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>214.28479809976247</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G31" s="5">
+        <v>26.1</v>
+      </c>
+      <c r="H31" s="7">
+        <v>8060</v>
+      </c>
+      <c r="I31" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>223.8558312655087</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G32" s="5">
+        <v>26.7</v>
+      </c>
+      <c r="H32" s="7">
+        <v>7740</v>
+      </c>
+      <c r="I32" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>233.1108527131783</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G33" s="5">
+        <v>27.2</v>
+      </c>
+      <c r="H33" s="7">
+        <v>7430</v>
+      </c>
+      <c r="I33" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>242.83687752355317</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G34" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="H34" s="7">
+        <v>7090</v>
+      </c>
+      <c r="I34" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>254.4820874471086</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G35" s="5">
+        <v>28.2</v>
+      </c>
+      <c r="H35" s="7">
+        <v>6800</v>
+      </c>
+      <c r="I35" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>265.33499999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G36" s="5">
+        <v>28.7</v>
+      </c>
+      <c r="H36" s="7">
+        <v>6490</v>
+      </c>
+      <c r="I36" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>278.008936825886</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G37" s="5">
+        <v>29.2</v>
+      </c>
+      <c r="H37" s="7">
+        <v>6190</v>
+      </c>
+      <c r="I37" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>291.48271405492733</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G38" s="5">
+        <v>29.7</v>
+      </c>
+      <c r="H38" s="7">
+        <v>5940</v>
+      </c>
+      <c r="I38" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>303.75050505050507</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G39" s="5">
+        <v>30.2</v>
+      </c>
+      <c r="H39" s="7">
+        <v>5650</v>
+      </c>
+      <c r="I39" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>319.3412389380531</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G40" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="H40" s="7">
+        <v>5390</v>
+      </c>
+      <c r="I40" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>334.74545454545455</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G41" s="5">
+        <v>30.9</v>
+      </c>
+      <c r="H41" s="7">
+        <v>5100</v>
+      </c>
+      <c r="I41" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>353.78</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G42" s="5">
+        <v>31.3</v>
+      </c>
+      <c r="H42" s="7">
+        <v>4850</v>
+      </c>
+      <c r="I42" s="8">
+        <f>_nVcv9/Table2[[#This Row],[Range (nmi)]]</f>
+        <v>372.01608247422678</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{D66FA482-DDDE-4BA5-B0CF-0953760D66B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/WW2_Ship_Analysis/LexingtonVsYorktownFuelUsage/LexingtonYorktownPrework.xlsx
+++ b/WW2_Ship_Analysis/LexingtonVsYorktownFuelUsage/LexingtonYorktownPrework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PythonExercises\WW2_Ship_Analysis\LexingtonVsYorktownFuelUsage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15218EE-B5C0-4A11-A91F-2D96272A214D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFDF78F-DA2C-4C86-8DCE-A510A07C0A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{12029E8E-7F84-4CF1-B9E8-BAF5EF97425C}"/>
   </bookViews>
@@ -1246,7 +1246,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00;\-0.00;0.00;@"/>
     <numFmt numFmtId="166" formatCode="0;\-0;0;@"/>
-    <numFmt numFmtId="170" formatCode="0.000;\-0.000;0.000;@"/>
+    <numFmt numFmtId="167" formatCode="0.000;\-0.000;0.000;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1486,7 +1486,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1497,8 +1497,7 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="15"/>
   </cellXfs>
   <cellStyles count="16">
@@ -1625,7 +1624,7 @@
           <c:x val="0.14891774891774892"/>
           <c:y val="0.16849555263925342"/>
           <c:w val="0.80792748917748913"/>
-          <c:h val="0.66358778069407987"/>
+          <c:h val="0.59822834645669298"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2293,7 +2292,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2921,30 +2920,101 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFBAA122-0299-B1B5-F4E9-1B68689790F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABF9331-637F-3F79-5953-13B6C0350B98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7520940" y="731520"/>
+          <a:ext cx="4693920" cy="3108960"/>
+          <a:chOff x="7520940" y="731520"/>
+          <a:chExt cx="4693920" cy="3108960"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Chart 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFBAA122-0299-B1B5-F4E9-1B68689790F2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="7520940" y="731520"/>
+          <a:ext cx="4693920" cy="3108960"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="TextBox 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E81F24-21DE-78F0-6E9E-A77E74DA845A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7825740" y="3566160"/>
+            <a:ext cx="4389120" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="900"/>
+              <a:t>Source: https://www.ibiblio.org/hyperwar/USN/ref/Fuel/Fuel-CV.html</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5535,7 +5605,7 @@
         <v>14900</v>
       </c>
       <c r="X43">
-        <f>_nVcv9/W43</f>
+        <f t="shared" ref="X43:X76" si="7">_nVcv9/W43</f>
         <v>121.09248322147651</v>
       </c>
     </row>
@@ -5598,7 +5668,7 @@
         <v>14800</v>
       </c>
       <c r="X44">
-        <f>_nVcv9/W44</f>
+        <f t="shared" si="7"/>
         <v>121.91067567567568</v>
       </c>
     </row>
@@ -5637,7 +5707,7 @@
         <v>14550</v>
       </c>
       <c r="X45">
-        <f>_nVcv9/W45</f>
+        <f t="shared" si="7"/>
         <v>124.00536082474227</v>
       </c>
     </row>
@@ -5688,7 +5758,7 @@
         <v>14380</v>
       </c>
       <c r="X46">
-        <f>_nVcv9/W46</f>
+        <f t="shared" si="7"/>
         <v>125.47134909596662</v>
       </c>
     </row>
@@ -5715,7 +5785,7 @@
         <v>14170</v>
       </c>
       <c r="X47">
-        <f>_nVcv9/W47</f>
+        <f t="shared" si="7"/>
         <v>127.33083980239944</v>
       </c>
     </row>
@@ -5766,7 +5836,7 @@
         <v>13860</v>
       </c>
       <c r="X48">
-        <f>_nVcv9/W48</f>
+        <f t="shared" si="7"/>
         <v>130.17878787878789</v>
       </c>
     </row>
@@ -5817,7 +5887,7 @@
         <v>13610</v>
       </c>
       <c r="X49">
-        <f>_nVcv9/W49</f>
+        <f t="shared" si="7"/>
         <v>132.57002204261573</v>
       </c>
     </row>
@@ -5844,7 +5914,7 @@
         <v>13330</v>
       </c>
       <c r="X50">
-        <f>_nVcv9/W50</f>
+        <f t="shared" si="7"/>
         <v>135.35468867216804</v>
       </c>
     </row>
@@ -5895,7 +5965,7 @@
         <v>12970</v>
       </c>
       <c r="X51">
-        <f>_nVcv9/W51</f>
+        <f t="shared" si="7"/>
         <v>139.11164225134928</v>
       </c>
     </row>
@@ -5922,7 +5992,7 @@
         <v>12670</v>
       </c>
       <c r="X52">
-        <f>_nVcv9/W52</f>
+        <f t="shared" si="7"/>
         <v>142.40552486187846</v>
       </c>
     </row>
@@ -5973,7 +6043,7 @@
         <v>12360</v>
       </c>
       <c r="X53">
-        <f>_nVcv9/W53</f>
+        <f t="shared" si="7"/>
         <v>145.97718446601942</v>
       </c>
     </row>
@@ -6024,7 +6094,7 @@
         <v>11990</v>
       </c>
       <c r="X54">
-        <f>_nVcv9/W54</f>
+        <f t="shared" si="7"/>
         <v>150.48190158465388</v>
       </c>
     </row>
@@ -6051,7 +6121,7 @@
         <v>11660</v>
       </c>
       <c r="X55">
-        <f>_nVcv9/W55</f>
+        <f t="shared" si="7"/>
         <v>154.74082332761577</v>
       </c>
     </row>
@@ -6102,7 +6172,7 @@
         <v>11270</v>
       </c>
       <c r="X56">
-        <f>_nVcv9/W56</f>
+        <f t="shared" si="7"/>
         <v>160.09565217391304</v>
       </c>
     </row>
@@ -6129,7 +6199,7 @@
         <v>10910</v>
       </c>
       <c r="X57">
-        <f>_nVcv9/W57</f>
+        <f t="shared" si="7"/>
         <v>165.37836846929423</v>
       </c>
     </row>
@@ -6180,7 +6250,7 @@
         <v>10590</v>
       </c>
       <c r="X58">
-        <f>_nVcv9/W58</f>
+        <f t="shared" si="7"/>
         <v>170.3756373937677</v>
       </c>
     </row>
@@ -6231,7 +6301,7 @@
         <v>10220</v>
       </c>
       <c r="X59">
-        <f>_nVcv9/W59</f>
+        <f t="shared" si="7"/>
         <v>176.54383561643834</v>
       </c>
     </row>
@@ -6258,7 +6328,7 @@
         <v>9790</v>
       </c>
       <c r="X60">
-        <f>_nVcv9/W60</f>
+        <f t="shared" si="7"/>
         <v>184.29805924412665</v>
       </c>
     </row>
@@ -6309,7 +6379,7 @@
         <v>9450</v>
       </c>
       <c r="X61">
-        <f>_nVcv9/W61</f>
+        <f t="shared" si="7"/>
         <v>190.92888888888888</v>
       </c>
     </row>
@@ -6336,7 +6406,7 @@
         <v>9100</v>
       </c>
       <c r="X62">
-        <f>_nVcv9/W62</f>
+        <f t="shared" si="7"/>
         <v>198.27230769230769</v>
       </c>
     </row>
@@ -6387,7 +6457,7 @@
         <v>8750</v>
       </c>
       <c r="X63">
-        <f>_nVcv9/W63</f>
+        <f t="shared" si="7"/>
         <v>206.20320000000001</v>
       </c>
     </row>
@@ -6438,7 +6508,7 @@
         <v>8420</v>
       </c>
       <c r="X64">
-        <f>_nVcv9/W64</f>
+        <f t="shared" si="7"/>
         <v>214.28479809976247</v>
       </c>
     </row>
@@ -6465,7 +6535,7 @@
         <v>8060</v>
       </c>
       <c r="X65">
-        <f>_nVcv9/W65</f>
+        <f t="shared" si="7"/>
         <v>223.8558312655087</v>
       </c>
     </row>
@@ -6516,7 +6586,7 @@
         <v>7740</v>
       </c>
       <c r="X66">
-        <f>_nVcv9/W66</f>
+        <f t="shared" si="7"/>
         <v>233.1108527131783</v>
       </c>
     </row>
@@ -6543,7 +6613,7 @@
         <v>7430</v>
       </c>
       <c r="X67">
-        <f>_nVcv9/W67</f>
+        <f t="shared" si="7"/>
         <v>242.83687752355317</v>
       </c>
     </row>
@@ -6594,7 +6664,7 @@
         <v>7090</v>
       </c>
       <c r="X68">
-        <f>_nVcv9/W68</f>
+        <f t="shared" si="7"/>
         <v>254.4820874471086</v>
       </c>
     </row>
@@ -6645,7 +6715,7 @@
         <v>6800</v>
       </c>
       <c r="X69">
-        <f>_nVcv9/W69</f>
+        <f t="shared" si="7"/>
         <v>265.33499999999998</v>
       </c>
     </row>
@@ -6678,7 +6748,7 @@
         <v>6490</v>
       </c>
       <c r="X70">
-        <f>_nVcv9/W70</f>
+        <f t="shared" si="7"/>
         <v>278.008936825886</v>
       </c>
     </row>
@@ -6723,7 +6793,7 @@
         <v>6190</v>
       </c>
       <c r="X71">
-        <f>_nVcv9/W71</f>
+        <f t="shared" si="7"/>
         <v>291.48271405492733</v>
       </c>
     </row>
@@ -6774,7 +6844,7 @@
         <v>5940</v>
       </c>
       <c r="X72">
-        <f>_nVcv9/W72</f>
+        <f t="shared" si="7"/>
         <v>303.75050505050507</v>
       </c>
     </row>
@@ -6801,7 +6871,7 @@
         <v>5650</v>
       </c>
       <c r="X73">
-        <f>_nVcv9/W73</f>
+        <f t="shared" si="7"/>
         <v>319.3412389380531</v>
       </c>
     </row>
@@ -6852,7 +6922,7 @@
         <v>5390</v>
       </c>
       <c r="X74">
-        <f>_nVcv9/W74</f>
+        <f t="shared" si="7"/>
         <v>334.74545454545455</v>
       </c>
     </row>
@@ -6903,7 +6973,7 @@
         <v>5100</v>
       </c>
       <c r="X75">
-        <f>_nVcv9/W75</f>
+        <f t="shared" si="7"/>
         <v>353.78</v>
       </c>
     </row>
@@ -6954,7 +7024,7 @@
         <v>4850</v>
       </c>
       <c r="X76">
-        <f>_nVcv9/W76</f>
+        <f t="shared" si="7"/>
         <v>372.01608247422678</v>
       </c>
     </row>
@@ -7602,8 +7672,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7641,7 +7711,7 @@
       <c r="B4" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7663,7 +7733,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="9"/>
+      <c r="G7" s="8"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
